--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7238583957829121</v>
+        <v>0.7238583957827984</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.418349952841055</v>
+        <v>1.418349952840714</v>
       </c>
       <c r="E2">
-        <v>0.7238409517939601</v>
+        <v>0.7238409517939175</v>
       </c>
       <c r="F2">
-        <v>16.0767203268544</v>
+        <v>16.07672032685451</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7224050238326711</v>
+        <v>0.7224050238326925</v>
       </c>
       <c r="I2">
-        <v>0.117162861088719</v>
+        <v>0.1171628610886906</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6254996184283357</v>
+        <v>0.6254996184282788</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.086584142486629</v>
+        <v>1.08658414248643</v>
       </c>
       <c r="E3">
-        <v>0.5929153661912494</v>
+        <v>0.5929153661913062</v>
       </c>
       <c r="F3">
-        <v>12.36827288942152</v>
+        <v>12.36827288942141</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6586469205746894</v>
+        <v>0.6586469205746965</v>
       </c>
       <c r="I3">
-        <v>0.1027903079770098</v>
+        <v>0.1027903079770489</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.840318074184495</v>
+        <v>9.840318074184523</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5662540686615785</v>
+        <v>0.5662540686618343</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9262438550014451</v>
+        <v>0.9262438550016725</v>
       </c>
       <c r="E4">
         <v>0.5243094062710512</v>
       </c>
       <c r="F4">
-        <v>10.57654983864691</v>
+        <v>10.576549838647</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.6216521154569108</v>
+        <v>0.6216521154569037</v>
       </c>
       <c r="I4">
-        <v>0.09445776521010174</v>
+        <v>0.0944577652101195</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.542304821365434</v>
+        <v>0.5423048213655477</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8672240628286545</v>
+        <v>0.8672240628290808</v>
       </c>
       <c r="E5">
-        <v>0.4980263532829028</v>
+        <v>0.4980263532828957</v>
       </c>
       <c r="F5">
-        <v>9.91801974745843</v>
+        <v>9.918019747458345</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6070756764121938</v>
+        <v>0.6070756764121867</v>
       </c>
       <c r="I5">
-        <v>0.09112947154753925</v>
+        <v>0.09112947154751438</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5383377655234369</v>
+        <v>0.5383377655234085</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8577269616365868</v>
+        <v>0.8577269616364447</v>
       </c>
       <c r="E6">
         <v>0.493741373488831</v>
       </c>
       <c r="F6">
-        <v>9.812125462329959</v>
+        <v>9.812125462329874</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6046837991389253</v>
+        <v>0.6046837991389538</v>
       </c>
       <c r="I6">
-        <v>0.09057995641747496</v>
+        <v>0.09057995641745364</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.105055300879229</v>
+        <v>8.105055300879258</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5659303904654109</v>
+        <v>0.5659303904650983</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9254260942013843</v>
+        <v>0.9254260942012991</v>
       </c>
       <c r="E7">
-        <v>0.5239492179907117</v>
+        <v>0.5239492179907472</v>
       </c>
       <c r="F7">
-        <v>10.56742067708939</v>
+        <v>10.56742067708956</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.6214535838866837</v>
+        <v>0.6214535838866979</v>
       </c>
       <c r="I7">
-        <v>0.09441265076619842</v>
+        <v>0.09441265076624461</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.632219047864396</v>
+        <v>8.632219047864453</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E8">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F8">
         <v>14.65085783424325</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I8">
         <v>0.1120507763633611</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E9">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F9">
         <v>14.65085783424325</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I9">
         <v>0.1120507763633611</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E10">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F10">
         <v>14.65085783424325</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I10">
         <v>0.1120507763633611</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E11">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F11">
         <v>14.65085783424325</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I11">
         <v>0.1120507763633611</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E12">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F12">
         <v>14.65085783424325</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I12">
         <v>0.1120507763633611</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E13">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F13">
         <v>14.65085783424325</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I13">
         <v>0.1120507763633611</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E14">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F14">
         <v>14.65085783424325</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I14">
         <v>0.1120507763633611</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E15">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F15">
         <v>14.65085783424325</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I15">
         <v>0.1120507763633611</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E16">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F16">
         <v>14.65085783424325</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I16">
         <v>0.1120507763633611</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E17">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F17">
         <v>14.65085783424325</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I17">
         <v>0.1120507763633611</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E18">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F18">
         <v>14.65085783424325</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I18">
         <v>0.1120507763633611</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E19">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F19">
         <v>14.65085783424325</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I19">
         <v>0.1120507763633611</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E20">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F20">
         <v>14.65085783424325</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I20">
         <v>0.1120507763633611</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E21">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F21">
         <v>14.65085783424325</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I21">
         <v>0.1120507763633611</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E22">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F22">
         <v>14.65085783424325</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I22">
         <v>0.1120507763633611</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E23">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F23">
         <v>14.65085783424325</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I23">
         <v>0.1120507763633611</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E24">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F24">
         <v>14.65085783424325</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I24">
         <v>0.1120507763633611</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6896306968734507</v>
+        <v>0.6896306968733654</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.290710994303623</v>
+        <v>1.290710994303367</v>
       </c>
       <c r="E25">
-        <v>0.6750492275938456</v>
+        <v>0.6750492275937745</v>
       </c>
       <c r="F25">
         <v>14.65085783424325</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.6999641841914155</v>
+        <v>0.699964184191451</v>
       </c>
       <c r="I25">
         <v>0.1120507763633611</v>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7238583957827984</v>
+        <v>0.7238583957829121</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.418349952840714</v>
+        <v>1.418349952841055</v>
       </c>
       <c r="E2">
-        <v>0.7238409517939175</v>
+        <v>0.7238409517939601</v>
       </c>
       <c r="F2">
-        <v>16.07672032685451</v>
+        <v>16.0767203268544</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.7224050238326925</v>
+        <v>0.7224050238326711</v>
       </c>
       <c r="I2">
-        <v>0.1171628610886906</v>
+        <v>0.117162861088719</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6254996184282788</v>
+        <v>0.6254996184283357</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.08658414248643</v>
+        <v>1.086584142486629</v>
       </c>
       <c r="E3">
-        <v>0.5929153661913062</v>
+        <v>0.5929153661912494</v>
       </c>
       <c r="F3">
-        <v>12.36827288942141</v>
+        <v>12.36827288942152</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6586469205746965</v>
+        <v>0.6586469205746894</v>
       </c>
       <c r="I3">
-        <v>0.1027903079770489</v>
+        <v>0.1027903079770098</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.840318074184523</v>
+        <v>9.840318074184495</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5662540686618343</v>
+        <v>0.5662540686615785</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9262438550016725</v>
+        <v>0.9262438550014451</v>
       </c>
       <c r="E4">
         <v>0.5243094062710512</v>
       </c>
       <c r="F4">
-        <v>10.576549838647</v>
+        <v>10.57654983864691</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.6216521154569037</v>
+        <v>0.6216521154569108</v>
       </c>
       <c r="I4">
-        <v>0.0944577652101195</v>
+        <v>0.09445776521010174</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5423048213655477</v>
+        <v>0.542304821365434</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8672240628290808</v>
+        <v>0.8672240628286545</v>
       </c>
       <c r="E5">
-        <v>0.4980263532828957</v>
+        <v>0.4980263532829028</v>
       </c>
       <c r="F5">
-        <v>9.918019747458345</v>
+        <v>9.91801974745843</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.6070756764121867</v>
+        <v>0.6070756764121938</v>
       </c>
       <c r="I5">
-        <v>0.09112947154751438</v>
+        <v>0.09112947154753925</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5383377655234085</v>
+        <v>0.5383377655234369</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8577269616364447</v>
+        <v>0.8577269616365868</v>
       </c>
       <c r="E6">
         <v>0.493741373488831</v>
       </c>
       <c r="F6">
-        <v>9.812125462329874</v>
+        <v>9.812125462329959</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.6046837991389538</v>
+        <v>0.6046837991389253</v>
       </c>
       <c r="I6">
-        <v>0.09057995641745364</v>
+        <v>0.09057995641747496</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.105055300879258</v>
+        <v>8.105055300879229</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5659303904650983</v>
+        <v>0.5659303904654109</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9254260942012991</v>
+        <v>0.9254260942013843</v>
       </c>
       <c r="E7">
-        <v>0.5239492179907472</v>
+        <v>0.5239492179907117</v>
       </c>
       <c r="F7">
-        <v>10.56742067708956</v>
+        <v>10.56742067708939</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.6214535838866979</v>
+        <v>0.6214535838866837</v>
       </c>
       <c r="I7">
-        <v>0.09441265076624461</v>
+        <v>0.09441265076619842</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.632219047864453</v>
+        <v>8.632219047864396</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E8">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F8">
         <v>14.65085783424325</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I8">
         <v>0.1120507763633611</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E9">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F9">
         <v>14.65085783424325</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I9">
         <v>0.1120507763633611</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E10">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F10">
         <v>14.65085783424325</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I10">
         <v>0.1120507763633611</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E11">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F11">
         <v>14.65085783424325</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I11">
         <v>0.1120507763633611</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E12">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F12">
         <v>14.65085783424325</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I12">
         <v>0.1120507763633611</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E13">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F13">
         <v>14.65085783424325</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I13">
         <v>0.1120507763633611</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E14">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F14">
         <v>14.65085783424325</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I14">
         <v>0.1120507763633611</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E15">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F15">
         <v>14.65085783424325</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I15">
         <v>0.1120507763633611</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E16">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F16">
         <v>14.65085783424325</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I16">
         <v>0.1120507763633611</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E17">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F17">
         <v>14.65085783424325</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I17">
         <v>0.1120507763633611</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E18">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F18">
         <v>14.65085783424325</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I18">
         <v>0.1120507763633611</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E19">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F19">
         <v>14.65085783424325</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I19">
         <v>0.1120507763633611</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E20">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F20">
         <v>14.65085783424325</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I20">
         <v>0.1120507763633611</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E21">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F21">
         <v>14.65085783424325</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I21">
         <v>0.1120507763633611</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E22">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F22">
         <v>14.65085783424325</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I22">
         <v>0.1120507763633611</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E23">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F23">
         <v>14.65085783424325</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I23">
         <v>0.1120507763633611</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E24">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F24">
         <v>14.65085783424325</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I24">
         <v>0.1120507763633611</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6896306968733654</v>
+        <v>0.6896306968734507</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.290710994303367</v>
+        <v>1.290710994303623</v>
       </c>
       <c r="E25">
-        <v>0.6750492275937745</v>
+        <v>0.6750492275938456</v>
       </c>
       <c r="F25">
         <v>14.65085783424325</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.699964184191451</v>
+        <v>0.6999641841914155</v>
       </c>
       <c r="I25">
         <v>0.1120507763633611</v>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7238583957829121</v>
+        <v>0.7227959524676351</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.418349952841055</v>
+        <v>1.370965502088779</v>
       </c>
       <c r="E2">
-        <v>0.7238409517939601</v>
+        <v>0.7061964844623176</v>
       </c>
       <c r="F2">
-        <v>16.0767203268544</v>
+        <v>15.64018880673513</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005322422901409339</v>
       </c>
       <c r="H2">
-        <v>0.7224050238326711</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.117162861088719</v>
+        <v>0.7240716688763129</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1154661504627583</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.14115110539947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.93822433226879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6254996184283357</v>
+        <v>0.624585766285719</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.086584142486629</v>
+        <v>1.054987551213941</v>
       </c>
       <c r="E3">
-        <v>0.5929153661912494</v>
+        <v>0.5796846802606765</v>
       </c>
       <c r="F3">
-        <v>12.36827288942152</v>
+        <v>12.09563315619567</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005847641117060308</v>
       </c>
       <c r="H3">
-        <v>0.6586469205746894</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1027903079770098</v>
+        <v>0.6603979245638385</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1012265682134483</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.840318074184495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.705224928793626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5662540686615785</v>
+        <v>0.5654190102144128</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9262438550014451</v>
+        <v>0.9009410371325259</v>
       </c>
       <c r="E4">
-        <v>0.5243094062710512</v>
+        <v>0.5127711224177247</v>
       </c>
       <c r="F4">
-        <v>10.57654983864691</v>
+        <v>10.36857796325404</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006131086129218715</v>
       </c>
       <c r="H4">
-        <v>0.6216521154569108</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.09445776521010174</v>
+        <v>0.6235447807827867</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09291966028801113</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.638513160020494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>8.529719484254258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.542304821365434</v>
+        <v>0.5415009993899673</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8672240628286545</v>
+        <v>0.8441022895839012</v>
       </c>
       <c r="E5">
-        <v>0.4980263532829028</v>
+        <v>0.4870623668903562</v>
       </c>
       <c r="F5">
-        <v>9.91801974745843</v>
+        <v>9.732339349662823</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006241292272554765</v>
       </c>
       <c r="H5">
-        <v>0.6070756764121938</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.09112947154753925</v>
+        <v>0.6090375969839386</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0895953192045944</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.179745029072166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>8.079935213606035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5383377655234369</v>
+        <v>0.5375391058943535</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8577269616365868</v>
+        <v>0.8349506795314028</v>
       </c>
       <c r="E6">
-        <v>0.493741373488831</v>
+        <v>0.4828677164654351</v>
       </c>
       <c r="F6">
-        <v>9.812125462329959</v>
+        <v>9.629969997850594</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006259351472324602</v>
       </c>
       <c r="H6">
-        <v>0.6046837991389253</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.09057995641747496</v>
+        <v>0.60665776577099</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08904617157187289</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.105055300879229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>8.006661822026871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5659303904654109</v>
+        <v>0.5650957554082936</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9254260942013843</v>
+        <v>0.9001539238832379</v>
       </c>
       <c r="E7">
-        <v>0.5239492179907117</v>
+        <v>0.5124190510773516</v>
       </c>
       <c r="F7">
-        <v>10.56742067708939</v>
+        <v>10.35976249022139</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006132590036483303</v>
       </c>
       <c r="H7">
-        <v>0.6214535838866837</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.09441265076619842</v>
+        <v>0.6233471439372948</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.09287462034379956</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.632219047864396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8.523552108029293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E8">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F8">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H8">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E9">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F9">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H9">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E10">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F10">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H10">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E11">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F11">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H11">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E12">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F12">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H12">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E13">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F13">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H13">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E14">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F14">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H14">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E15">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F15">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H15">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E16">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F16">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H16">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E17">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F17">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H17">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E18">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F18">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H18">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E19">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F19">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H19">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E20">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F20">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H20">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E21">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F21">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H21">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E22">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F22">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H22">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E23">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F23">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H23">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E24">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F24">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H24">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.28376357123565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>11.10968860697321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6896306968734507</v>
+        <v>0.6886245959388759</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.290710994303623</v>
+        <v>1.249979521742858</v>
       </c>
       <c r="E25">
-        <v>0.6750492275938456</v>
+        <v>0.6592882450673514</v>
       </c>
       <c r="F25">
-        <v>14.65085783424325</v>
+        <v>14.28362609060252</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005515715969143311</v>
       </c>
       <c r="H25">
-        <v>0.6999641841914155</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1120507763633611</v>
+        <v>0.7016292943849791</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1104197121774817</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.28376357123565</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>11.10968860697321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7227959524676351</v>
+        <v>1.672370437009789</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.370965502088779</v>
+        <v>0.01887112478443598</v>
       </c>
       <c r="E2">
-        <v>0.7061964844623176</v>
+        <v>0.4979637466650431</v>
       </c>
       <c r="F2">
-        <v>15.64018880673513</v>
+        <v>2.04437197500684</v>
       </c>
       <c r="G2">
-        <v>0.0005322422901409339</v>
+        <v>0.0007610208029796774</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7240716688763129</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1154661504627583</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.031267598708013</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8403745586364835</v>
       </c>
       <c r="M2">
-        <v>11.93822433226879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.621810798688983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.624585766285719</v>
+        <v>1.467428813992342</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.054987551213941</v>
+        <v>0.01937622022101948</v>
       </c>
       <c r="E3">
-        <v>0.5796846802606765</v>
+        <v>0.4538066908275056</v>
       </c>
       <c r="F3">
-        <v>12.09563315619567</v>
+        <v>1.80072934122488</v>
       </c>
       <c r="G3">
-        <v>0.0005847641117060308</v>
+        <v>0.0007709803263734852</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6603979245638385</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1012265682134483</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.758655717738733</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.7253870517823771</v>
       </c>
       <c r="M3">
-        <v>9.705224928793626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.433225538407967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5654190102144128</v>
+        <v>1.343714063509793</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9009410371325259</v>
+        <v>0.01984069543263445</v>
       </c>
       <c r="E4">
-        <v>0.5127711224177247</v>
+        <v>0.4269641359705716</v>
       </c>
       <c r="F4">
-        <v>10.36857796325404</v>
+        <v>1.657461584047113</v>
       </c>
       <c r="G4">
-        <v>0.0006131086129218715</v>
+        <v>0.0007772364177229347</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6235447807827867</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09291966028801113</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.593042213014954</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.6557628927541685</v>
       </c>
       <c r="M4">
-        <v>8.529719484254258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.322727368458246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5415009993899673</v>
+        <v>1.293766549793901</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8441022895839012</v>
+        <v>0.02006508480567959</v>
       </c>
       <c r="E5">
-        <v>0.4870623668903562</v>
+        <v>0.4160774100101676</v>
       </c>
       <c r="F5">
-        <v>9.732339349662823</v>
+        <v>1.600485517843765</v>
       </c>
       <c r="G5">
-        <v>0.0006241292272554765</v>
+        <v>0.000779823790222315</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6090375969839386</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0895953192045944</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.525910805818469</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.6275967451794457</v>
       </c>
       <c r="M5">
-        <v>8.079935213606035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.27887692209201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5375391058943535</v>
+        <v>1.285499210460046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8349506795314028</v>
+        <v>0.02010436454483866</v>
       </c>
       <c r="E6">
-        <v>0.4828677164654351</v>
+        <v>0.4142723752249751</v>
       </c>
       <c r="F6">
-        <v>9.629969997850594</v>
+        <v>1.591104577837143</v>
       </c>
       <c r="G6">
-        <v>0.0006259351472324602</v>
+        <v>0.0007802557839800745</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.60665776577099</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08904617157187289</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.514782875076406</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.6229311444923127</v>
       </c>
       <c r="M6">
-        <v>8.006661822026871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.271662579413658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5650957554082936</v>
+        <v>1.343038644744951</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9001539238832379</v>
+        <v>0.0198435840574156</v>
       </c>
       <c r="E7">
-        <v>0.5124190510773516</v>
+        <v>0.4268171237253995</v>
       </c>
       <c r="F7">
-        <v>10.35976249022139</v>
+        <v>1.656687720614173</v>
       </c>
       <c r="G7">
-        <v>0.0006132590036483303</v>
+        <v>0.0007772711549472212</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6233471439372948</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09287462034379956</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.592135517796351</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.6553822489122467</v>
       </c>
       <c r="M7">
-        <v>8.523552108029293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.322131405557087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6886245959388759</v>
+        <v>1.601224851958591</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.249979521742858</v>
+        <v>0.01901088953419006</v>
       </c>
       <c r="E8">
-        <v>0.6592882450673514</v>
+        <v>0.4826720103758362</v>
       </c>
       <c r="F8">
-        <v>14.28362609060252</v>
+        <v>1.958932975659508</v>
       </c>
       <c r="G8">
-        <v>0.0005515715969143311</v>
+        <v>0.0007644272057048294</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.93684741245751</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.8004984903388674</v>
       </c>
       <c r="M8">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.55559098809151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6886245959388759</v>
+        <v>2.127695553965964</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.249979521742858</v>
+        <v>0.01879396883605366</v>
       </c>
       <c r="E9">
-        <v>0.6592882450673514</v>
+        <v>0.5951966795874029</v>
       </c>
       <c r="F9">
-        <v>14.28362609060252</v>
+        <v>2.611307553044611</v>
       </c>
       <c r="G9">
-        <v>0.0005515715969143311</v>
+        <v>0.0007402292365333971</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.631420507428885</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.094874281108332</v>
       </c>
       <c r="M9">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.0632147762568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6886245959388759</v>
+        <v>2.532110960000296</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.249979521742858</v>
+        <v>0.0198110090085386</v>
       </c>
       <c r="E10">
-        <v>0.6592882450673514</v>
+        <v>0.6811143125782522</v>
       </c>
       <c r="F10">
-        <v>14.28362609060252</v>
+        <v>3.142195228926994</v>
       </c>
       <c r="G10">
-        <v>0.0005515715969143311</v>
+        <v>0.000722846946020649</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.160424948329862</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.320404901783377</v>
       </c>
       <c r="M10">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.479103719422881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6886245959388759</v>
+        <v>2.721319089067379</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.249979521742858</v>
+        <v>0.02061591681509611</v>
       </c>
       <c r="E11">
-        <v>0.6592882450673514</v>
+        <v>0.721305453030169</v>
       </c>
       <c r="F11">
-        <v>14.28362609060252</v>
+        <v>3.399018282358554</v>
       </c>
       <c r="G11">
-        <v>0.0005515715969143311</v>
+        <v>0.0007149697690196474</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.407139864893423</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.42589104950585</v>
       </c>
       <c r="M11">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.681023855240085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6886245959388759</v>
+        <v>2.793858264616347</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.249979521742858</v>
+        <v>0.02097889982601586</v>
       </c>
       <c r="E12">
-        <v>0.6592882450673514</v>
+        <v>0.7367255584253272</v>
       </c>
       <c r="F12">
-        <v>14.28362609060252</v>
+        <v>3.498887483764321</v>
       </c>
       <c r="G12">
-        <v>0.0005515715969143311</v>
+        <v>0.0007119856628914799</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.501637806118666</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.466339029477922</v>
       </c>
       <c r="M12">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.759659326323558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6886245959388759</v>
+        <v>2.778193654593565</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.249979521742858</v>
+        <v>0.02089797581730579</v>
       </c>
       <c r="E13">
-        <v>0.6592882450673514</v>
+        <v>0.7333948909864745</v>
       </c>
       <c r="F13">
-        <v>14.28362609060252</v>
+        <v>3.477255169004792</v>
       </c>
       <c r="G13">
-        <v>0.0005515715969143311</v>
+        <v>0.0007126284946723516</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.481234731675585</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.457603937083661</v>
       </c>
       <c r="M13">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.742621044387846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6886245959388759</v>
+        <v>2.727268230046889</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.249979521742858</v>
+        <v>0.02064455606167925</v>
       </c>
       <c r="E14">
-        <v>0.6592882450673514</v>
+        <v>0.7225697869353169</v>
       </c>
       <c r="F14">
-        <v>14.28362609060252</v>
+        <v>3.407179533112355</v>
       </c>
       <c r="G14">
-        <v>0.0005515715969143311</v>
+        <v>0.0007147243236813292</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.414891506686459</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.429208105563731</v>
       </c>
       <c r="M14">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.68744752514705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6886245959388759</v>
+        <v>2.696195288493016</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.249979521742858</v>
+        <v>0.02049720154828805</v>
       </c>
       <c r="E15">
-        <v>0.6592882450673514</v>
+        <v>0.7159665929868027</v>
       </c>
       <c r="F15">
-        <v>14.28362609060252</v>
+        <v>3.364610324033436</v>
       </c>
       <c r="G15">
-        <v>0.0005515715969143311</v>
+        <v>0.0007160077446297652</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.374400539823725</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.411883125320287</v>
       </c>
       <c r="M15">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.653946270016988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6886245959388759</v>
+        <v>2.519862402259946</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.249979521742858</v>
+        <v>0.01976602203723132</v>
       </c>
       <c r="E16">
-        <v>0.6592882450673514</v>
+        <v>0.6785133574603464</v>
       </c>
       <c r="F16">
-        <v>14.28362609060252</v>
+        <v>3.125753229353393</v>
       </c>
       <c r="G16">
-        <v>0.0005515715969143311</v>
+        <v>0.0007233618929021128</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.144439964234678</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.313576424274203</v>
       </c>
       <c r="M16">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.466191858749994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6886245959388759</v>
+        <v>2.413120515754542</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.249979521742858</v>
+        <v>0.0194109954928976</v>
       </c>
       <c r="E17">
-        <v>0.6592882450673514</v>
+        <v>0.6558474970260022</v>
       </c>
       <c r="F17">
-        <v>14.28362609060252</v>
+        <v>2.983418342212303</v>
       </c>
       <c r="G17">
-        <v>0.0005515715969143311</v>
+        <v>0.0007278774901856652</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.005052560691539</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.254066492133518</v>
       </c>
       <c r="M17">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.354496781874744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6886245959388759</v>
+        <v>2.352209072583321</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.249979521742858</v>
+        <v>0.0192383828020084</v>
       </c>
       <c r="E18">
-        <v>0.6592882450673514</v>
+        <v>0.6429119604335796</v>
       </c>
       <c r="F18">
-        <v>14.28362609060252</v>
+        <v>2.9029645934055</v>
       </c>
       <c r="G18">
-        <v>0.0005515715969143311</v>
+        <v>0.0007304779560756691</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.925438004411333</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.220104124653176</v>
       </c>
       <c r="M18">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.291427378656564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6886245959388759</v>
+        <v>2.331664728594205</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.249979521742858</v>
+        <v>0.01918511793904898</v>
       </c>
       <c r="E19">
-        <v>0.6592882450673514</v>
+        <v>0.6385484686896135</v>
       </c>
       <c r="F19">
-        <v>14.28362609060252</v>
+        <v>2.875955636498901</v>
       </c>
       <c r="G19">
-        <v>0.0005515715969143311</v>
+        <v>0.0007313591348510062</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.898572069155676</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.208648340590457</v>
       </c>
       <c r="M19">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.27026540949052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6886245959388759</v>
+        <v>2.42443238691834</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.249979521742858</v>
+        <v>0.01944545965691802</v>
       </c>
       <c r="E20">
-        <v>0.6592882450673514</v>
+        <v>0.6582495612972252</v>
       </c>
       <c r="F20">
-        <v>14.28362609060252</v>
+        <v>2.998421070335723</v>
       </c>
       <c r="G20">
-        <v>0.0005515715969143311</v>
+        <v>0.0007273965016208505</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.01983156019395</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.260373293018091</v>
       </c>
       <c r="M20">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.366263047312671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6886245959388759</v>
+        <v>2.742200905480729</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.249979521742858</v>
+        <v>0.02071733247945673</v>
       </c>
       <c r="E21">
-        <v>0.6592882450673514</v>
+        <v>0.7257435664115519</v>
       </c>
       <c r="F21">
-        <v>14.28362609060252</v>
+        <v>3.427687802286158</v>
       </c>
       <c r="G21">
-        <v>0.0005515715969143311</v>
+        <v>0.0007141088089240035</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.434347250468207</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.437534242792623</v>
       </c>
       <c r="M21">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.703591333967992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6886245959388759</v>
+        <v>2.955149290712257</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.249979521742858</v>
+        <v>0.02189319693944114</v>
       </c>
       <c r="E22">
-        <v>0.6592882450673514</v>
+        <v>0.7710496985635302</v>
       </c>
       <c r="F22">
-        <v>14.28362609060252</v>
+        <v>3.723732670239656</v>
       </c>
       <c r="G22">
-        <v>0.0005515715969143311</v>
+        <v>0.0007054143082668243</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.711627235776774</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.556300460574647</v>
       </c>
       <c r="M22">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.936923762556461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6886245959388759</v>
+        <v>2.840961652689828</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.249979521742858</v>
+        <v>0.02123064712935019</v>
       </c>
       <c r="E23">
-        <v>0.6592882450673514</v>
+        <v>0.7467436441226241</v>
       </c>
       <c r="F23">
-        <v>14.28362609060252</v>
+        <v>3.564154141356994</v>
       </c>
       <c r="G23">
-        <v>0.0005515715969143311</v>
+        <v>0.0007100577449387569</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.562979291417776</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.492607254303834</v>
       </c>
       <c r="M23">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.811082956608175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6886245959388759</v>
+        <v>2.419316880041208</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.249979521742858</v>
+        <v>0.01942978095732073</v>
       </c>
       <c r="E24">
-        <v>0.6592882450673514</v>
+        <v>0.6571632939925394</v>
       </c>
       <c r="F24">
-        <v>14.28362609060252</v>
+        <v>2.991634079765163</v>
       </c>
       <c r="G24">
-        <v>0.0005515715969143311</v>
+        <v>0.0007276139424720359</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.013148365949021</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.257521213877482</v>
       </c>
       <c r="M24">
-        <v>11.10968860697321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.360939975503484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6886245959388759</v>
+        <v>1.982603343077926</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.249979521742858</v>
+        <v>0.0186717164781065</v>
       </c>
       <c r="E25">
-        <v>0.6592882450673514</v>
+        <v>0.564303115208844</v>
       </c>
       <c r="F25">
-        <v>14.28362609060252</v>
+        <v>2.426993960588973</v>
       </c>
       <c r="G25">
-        <v>0.0005515715969143311</v>
+        <v>0.0007466892124411813</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7016292943849791</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1104197121774817</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.440832977304751</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.013877023720283</v>
       </c>
       <c r="M25">
-        <v>11.10968860697321</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.919366300220872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.672370437009789</v>
+        <v>3.434063171571836</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01887112478443598</v>
+        <v>0.005298165396380838</v>
       </c>
       <c r="E2">
-        <v>0.4979637466650431</v>
+        <v>1.524931150896066</v>
       </c>
       <c r="F2">
-        <v>2.04437197500684</v>
+        <v>0.9968661724061718</v>
       </c>
       <c r="G2">
-        <v>0.0007610208029796774</v>
+        <v>0.9869680518151398</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.479011109685743</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.29355081581588</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.031267598708013</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8403745586364835</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.621810798688983</v>
+        <v>3.050645075630598</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.467428813992342</v>
+        <v>2.986638742122068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01937622022101948</v>
+        <v>0.004652449415900151</v>
       </c>
       <c r="E3">
-        <v>0.4538066908275056</v>
+        <v>1.306053004890444</v>
       </c>
       <c r="F3">
-        <v>1.80072934122488</v>
+        <v>0.8628529833462437</v>
       </c>
       <c r="G3">
-        <v>0.0007709803263734852</v>
+        <v>0.8508712951368125</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4201828794666795</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9.844336852165554</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.758655717738733</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7253870517823771</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.433225538407967</v>
+        <v>2.638560695354784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.343714063509793</v>
+        <v>2.712641930439929</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01984069543263445</v>
+        <v>0.004260646586425665</v>
       </c>
       <c r="E4">
-        <v>0.4269641359705716</v>
+        <v>1.174656493552405</v>
       </c>
       <c r="F4">
-        <v>1.657461584047113</v>
+        <v>0.7818870751447378</v>
       </c>
       <c r="G4">
-        <v>0.0007772364177229347</v>
+        <v>0.7685931899414129</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3847939684975046</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.956724654652447</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.593042213014954</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6557628927541685</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.322727368458246</v>
+        <v>2.389784592458739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293766549793901</v>
+        <v>2.601103149140556</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02006508480567959</v>
+        <v>0.004101975997039986</v>
       </c>
       <c r="E5">
-        <v>0.4160774100101676</v>
+        <v>1.121746707635722</v>
       </c>
       <c r="F5">
-        <v>1.600485517843765</v>
+        <v>0.7491814915978097</v>
       </c>
       <c r="G5">
-        <v>0.000779823790222315</v>
+        <v>0.7353419341014273</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3705360649489222</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.595401611000227</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.525910805818469</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6275967451794457</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.27887692209201</v>
+        <v>2.289333870716746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.285499210460046</v>
+        <v>2.582587512584553</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02010436454483866</v>
+        <v>0.004075683971622723</v>
       </c>
       <c r="E6">
-        <v>0.4142723752249751</v>
+        <v>1.112996220327403</v>
       </c>
       <c r="F6">
-        <v>1.591104577837143</v>
+        <v>0.7437669979451584</v>
       </c>
       <c r="G6">
-        <v>0.0007802557839800745</v>
+        <v>0.7298360984162144</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3681778445340456</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8.535422914870139</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.514782875076406</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6229311444923127</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.271662579413658</v>
+        <v>2.272706244722855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.343038644744951</v>
+        <v>2.71113728649982</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0198435840574156</v>
+        <v>0.004258502903002892</v>
       </c>
       <c r="E7">
-        <v>0.4268171237253995</v>
+        <v>1.173940508682506</v>
       </c>
       <c r="F7">
-        <v>1.656687720614173</v>
+        <v>0.78144488166744</v>
       </c>
       <c r="G7">
-        <v>0.0007772711549472212</v>
+        <v>0.7681436849631496</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.384601046090765</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.951850372969318</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.592135517796351</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6553822489122467</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.322131405557087</v>
+        <v>2.388426300190986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.601224851958591</v>
+        <v>3.279600047042436</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01901088953419006</v>
+        <v>0.005074435093757046</v>
       </c>
       <c r="E8">
-        <v>0.4826720103758362</v>
+        <v>1.44876550594509</v>
       </c>
       <c r="F8">
-        <v>1.958932975659508</v>
+        <v>0.9503577801120713</v>
       </c>
       <c r="G8">
-        <v>0.0007644272057048294</v>
+        <v>0.9397463654442504</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4585622545726551</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.79329427806584</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.93684741245751</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8004984903388674</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.55559098809151</v>
+        <v>2.907589319884778</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.127695553965964</v>
+        <v>4.403388309025615</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01879396883605366</v>
+        <v>0.006721431169502523</v>
       </c>
       <c r="E9">
-        <v>0.5951966795874029</v>
+        <v>2.017483874186283</v>
       </c>
       <c r="F9">
-        <v>2.611307553044611</v>
+        <v>1.294198833933351</v>
       </c>
       <c r="G9">
-        <v>0.0007402292365333971</v>
+        <v>1.288739143502312</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6104393485628066</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.43077138200448</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.631420507428885</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.094874281108332</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.0632147762568</v>
+        <v>3.966343654729542</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.532110960000296</v>
+        <v>5.239709044502092</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0198110090085386</v>
+        <v>0.007977092752810222</v>
       </c>
       <c r="E10">
-        <v>0.6811143125782522</v>
+        <v>2.463144888214842</v>
       </c>
       <c r="F10">
-        <v>3.142195228926994</v>
+        <v>1.557834171831701</v>
       </c>
       <c r="G10">
-        <v>0.000722846946020649</v>
+        <v>1.556308785808511</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7278046150333353</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.13355518509053</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.160424948329862</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.320404901783377</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.479103719422881</v>
+        <v>4.779924602685014</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.721319089067379</v>
+        <v>5.623796921615792</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02061591681509611</v>
+        <v>0.008563135149408652</v>
       </c>
       <c r="E11">
-        <v>0.721305453030169</v>
+        <v>2.674521596467969</v>
       </c>
       <c r="F11">
-        <v>3.399018282358554</v>
+        <v>1.681013446550395</v>
       </c>
       <c r="G11">
-        <v>0.0007149697690196474</v>
+        <v>1.681371632577566</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.782866621990479</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.37337786845427</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.407139864893423</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.42589104950585</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.681023855240085</v>
+        <v>5.160604547285118</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.793858264616347</v>
+        <v>5.769885678609</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02097889982601586</v>
+        <v>0.008787704167087185</v>
       </c>
       <c r="E12">
-        <v>0.7367255584253272</v>
+        <v>2.756066497554144</v>
       </c>
       <c r="F12">
-        <v>3.498887483764321</v>
+        <v>1.728207105981014</v>
       </c>
       <c r="G12">
-        <v>0.0007119856628914799</v>
+        <v>1.729298286119558</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.803997330441689</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.84469284874041</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.501637806118666</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.466339029477922</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.759659326323558</v>
+        <v>5.30654847338036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.778193654593565</v>
+        <v>5.738392214588544</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02089797581730579</v>
+        <v>0.008739212105059124</v>
       </c>
       <c r="E13">
-        <v>0.7333948909864745</v>
+        <v>2.738433005009682</v>
       </c>
       <c r="F13">
-        <v>3.477255169004792</v>
+        <v>1.718017316158253</v>
       </c>
       <c r="G13">
-        <v>0.0007126284946723516</v>
+        <v>1.718949644460423</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7994333189917029</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.74309994097524</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.481234731675585</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.457603937083661</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.742621044387846</v>
+        <v>5.275032637844561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.727268230046889</v>
+        <v>5.63580211524868</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02064455606167925</v>
+        <v>0.008581554186072538</v>
       </c>
       <c r="E14">
-        <v>0.7225697869353169</v>
+        <v>2.681198627115037</v>
       </c>
       <c r="F14">
-        <v>3.407179533112355</v>
+        <v>1.684884606224955</v>
       </c>
       <c r="G14">
-        <v>0.0007147243236813292</v>
+        <v>1.685302661151781</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7845992030046318</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.41211466341946</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.414891506686459</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.429208105563731</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.68744752514705</v>
+        <v>5.172573933209151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.696195288493016</v>
+        <v>5.573050217150239</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02049720154828805</v>
+        <v>0.008485346035396191</v>
       </c>
       <c r="E15">
-        <v>0.7159665929868027</v>
+        <v>2.646344802390672</v>
       </c>
       <c r="F15">
-        <v>3.364610324033436</v>
+        <v>1.664663857490424</v>
       </c>
       <c r="G15">
-        <v>0.0007160077446297652</v>
+        <v>1.664769677683609</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7755505943766252</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.20962447570037</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.374400539823725</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.411883125320287</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.653946270016988</v>
+        <v>5.110056509087201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.519862402259946</v>
+        <v>5.214691192307157</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01976602203723132</v>
+        <v>0.007939133608239501</v>
       </c>
       <c r="E16">
-        <v>0.6785133574603464</v>
+        <v>2.449525978174464</v>
       </c>
       <c r="F16">
-        <v>3.125753229353393</v>
+        <v>1.549856206469315</v>
       </c>
       <c r="G16">
-        <v>0.0007233618929021128</v>
+        <v>1.5482101214414</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7242430871727095</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.05276540083537</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.144439964234678</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.313576424274203</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.466191858749994</v>
+        <v>4.755281211551505</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.413120515754542</v>
+        <v>4.995863217551744</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0194109954928976</v>
+        <v>0.007608183454845374</v>
       </c>
       <c r="E17">
-        <v>0.6558474970260022</v>
+        <v>2.331168706861192</v>
       </c>
       <c r="F17">
-        <v>2.983418342212303</v>
+        <v>1.480312321517161</v>
       </c>
       <c r="G17">
-        <v>0.0007278774901856652</v>
+        <v>1.477619640781597</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6932223413563747</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.34593973321427</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.005052560691539</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.254066492133518</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.354496781874744</v>
+        <v>4.540526966263201</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.352209072583321</v>
+        <v>4.870334028616981</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0192383828020084</v>
+        <v>0.007419189712354779</v>
       </c>
       <c r="E18">
-        <v>0.6429119604335796</v>
+        <v>2.263888576377553</v>
       </c>
       <c r="F18">
-        <v>2.9029645934055</v>
+        <v>1.440613032443892</v>
       </c>
       <c r="G18">
-        <v>0.0007304779560756691</v>
+        <v>1.437326779334853</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6755347551190596</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.94034052935723</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.925438004411333</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.220104124653176</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.291427378656564</v>
+        <v>4.417983711144132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.331664728594205</v>
+        <v>4.827886082259113</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01918511793904898</v>
+        <v>0.007355419270940189</v>
       </c>
       <c r="E19">
-        <v>0.6385484686896135</v>
+        <v>2.241238163662473</v>
       </c>
       <c r="F19">
-        <v>2.875955636498901</v>
+        <v>1.427220847244641</v>
       </c>
       <c r="G19">
-        <v>0.0007313591348510062</v>
+        <v>1.423734890859862</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.66957149556535</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.80316478736859</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.898572069155676</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.208648340590457</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.27026540949052</v>
+        <v>4.376652997491306</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.42443238691834</v>
+        <v>5.019122345915207</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01944545965691802</v>
+        <v>0.00764326951381733</v>
       </c>
       <c r="E20">
-        <v>0.6582495612972252</v>
+        <v>2.343683935536845</v>
       </c>
       <c r="F20">
-        <v>2.998421070335723</v>
+        <v>1.487683730996764</v>
       </c>
       <c r="G20">
-        <v>0.0007273965016208505</v>
+        <v>1.485101550843126</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6965082693320426</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.4210820678112</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.01983156019395</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.260373293018091</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.366263047312671</v>
+        <v>4.563284905654655</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.742200905480729</v>
+        <v>5.665916848071447</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02071733247945673</v>
+        <v>0.008627785649217401</v>
       </c>
       <c r="E21">
-        <v>0.7257435664115519</v>
+        <v>2.697966739097112</v>
       </c>
       <c r="F21">
-        <v>3.427687802286158</v>
+        <v>1.694600906553859</v>
       </c>
       <c r="G21">
-        <v>0.0007141088089240035</v>
+        <v>1.695169425529855</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7889484044630137</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.50928075155701</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.434347250468207</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.437534242792623</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.703591333967992</v>
+        <v>5.202617682842231</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.955149290712257</v>
+        <v>6.09244724781388</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02189319693944114</v>
+        <v>0.009286977287185749</v>
       </c>
       <c r="E22">
-        <v>0.7710496985635302</v>
+        <v>2.93841341156454</v>
       </c>
       <c r="F22">
-        <v>3.723732670239656</v>
+        <v>1.83307496087194</v>
       </c>
       <c r="G22">
-        <v>0.0007054143082668243</v>
+        <v>1.83582135473074</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8510172862341676</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>19.88483939217679</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.711627235776774</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.556300460574647</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.936923762556461</v>
+        <v>5.631035743392658</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.840961652689828</v>
+        <v>5.864408231950733</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02123064712935019</v>
+        <v>0.00893351337317938</v>
       </c>
       <c r="E23">
-        <v>0.7467436441226241</v>
+        <v>2.809170915509966</v>
       </c>
       <c r="F23">
-        <v>3.564154141356994</v>
+        <v>1.75884252607699</v>
       </c>
       <c r="G23">
-        <v>0.0007100577449387569</v>
+        <v>1.760413326892944</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8177241488519655</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.14956756317582</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.562979291417776</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.492607254303834</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.811082956608175</v>
+        <v>5.401315056717635</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.419316880041208</v>
+        <v>5.00860603716302</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01942978095732073</v>
+        <v>0.007627403176048375</v>
       </c>
       <c r="E24">
-        <v>0.6571632939925394</v>
+        <v>2.338023436638267</v>
       </c>
       <c r="F24">
-        <v>2.991634079765163</v>
+        <v>1.484350243086752</v>
       </c>
       <c r="G24">
-        <v>0.0007276139424720359</v>
+        <v>1.481718080754149</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6950222474172563</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.38710786282621</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.013148365949021</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.257521213877482</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.360939975503484</v>
+        <v>4.552993189745052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.982603343077926</v>
+        <v>4.097905588846118</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0186717164781065</v>
+        <v>0.006269286364984694</v>
       </c>
       <c r="E25">
-        <v>0.564303115208844</v>
+        <v>1.859524139094248</v>
       </c>
       <c r="F25">
-        <v>2.426993960588973</v>
+        <v>1.199509197689281</v>
       </c>
       <c r="G25">
-        <v>0.0007466892124411813</v>
+        <v>1.192647888632962</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5684647483349181</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.44254217779059</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.440832977304751</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.013877023720283</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.919366300220872</v>
+        <v>3.674513817175978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571836</v>
+        <v>1.219803940679071</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005298165396380838</v>
+        <v>0.00328276805978156</v>
       </c>
       <c r="E2">
-        <v>1.524931150896066</v>
+        <v>0.4354855266417559</v>
       </c>
       <c r="F2">
-        <v>0.9968661724061718</v>
+        <v>0.4268455756567278</v>
       </c>
       <c r="G2">
-        <v>0.9869680518151398</v>
+        <v>0.3367752227119354</v>
       </c>
       <c r="H2">
-        <v>0.479011109685743</v>
+        <v>0.3434920082859492</v>
       </c>
       <c r="I2">
-        <v>11.29355081581588</v>
+        <v>3.961193417866525</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.050645075630598</v>
+        <v>1.288635611322178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122068</v>
+        <v>1.069997499266549</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004652449415900151</v>
+        <v>0.003117985810526136</v>
       </c>
       <c r="E3">
-        <v>1.306053004890444</v>
+        <v>0.3796236440278449</v>
       </c>
       <c r="F3">
-        <v>0.8628529833462437</v>
+        <v>0.3933003553665202</v>
       </c>
       <c r="G3">
-        <v>0.8508712951368125</v>
+        <v>0.3012008603001277</v>
       </c>
       <c r="H3">
-        <v>0.4201828794666795</v>
+        <v>0.3306581927846537</v>
       </c>
       <c r="I3">
-        <v>9.844336852165554</v>
+        <v>3.481483530427994</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.638560695354784</v>
+        <v>1.186000399322808</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712641930439929</v>
+        <v>0.9775436500530645</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004260646586425665</v>
+        <v>0.003018255499195988</v>
       </c>
       <c r="E4">
-        <v>1.174656493552405</v>
+        <v>0.3454298728940586</v>
       </c>
       <c r="F4">
-        <v>0.7818870751447378</v>
+        <v>0.3729420886923549</v>
       </c>
       <c r="G4">
-        <v>0.7685931899414129</v>
+        <v>0.2794993337179079</v>
       </c>
       <c r="H4">
-        <v>0.3847939684975046</v>
+        <v>0.3229880749787242</v>
       </c>
       <c r="I4">
-        <v>8.956724654652447</v>
+        <v>3.186307868167489</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.389784592458739</v>
+        <v>1.123707417123967</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140556</v>
+        <v>0.9397517899408854</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004101975997039986</v>
+        <v>0.002977983059874845</v>
       </c>
       <c r="E5">
-        <v>1.121746707635722</v>
+        <v>0.3315199486717546</v>
       </c>
       <c r="F5">
-        <v>0.7491814915978097</v>
+        <v>0.3647054950681934</v>
       </c>
       <c r="G5">
-        <v>0.7353419341014273</v>
+        <v>0.2706907303260948</v>
       </c>
       <c r="H5">
-        <v>0.3705360649489222</v>
+        <v>0.3199150623406126</v>
       </c>
       <c r="I5">
-        <v>8.595401611000227</v>
+        <v>3.065876933603903</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.289333870716746</v>
+        <v>1.098503372127993</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512584553</v>
+        <v>0.9334695415156489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004075683971622723</v>
+        <v>0.002971318247256605</v>
       </c>
       <c r="E6">
-        <v>1.112996220327403</v>
+        <v>0.3292116194363217</v>
       </c>
       <c r="F6">
-        <v>0.7437669979451584</v>
+        <v>0.3633413997772692</v>
       </c>
       <c r="G6">
-        <v>0.7298360984162144</v>
+        <v>0.269230162170615</v>
       </c>
       <c r="H6">
-        <v>0.3681778445340456</v>
+        <v>0.3194079646665671</v>
       </c>
       <c r="I6">
-        <v>8.535422914870139</v>
+        <v>3.04587117873993</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.272706244722855</v>
+        <v>1.094329137056548</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.71113728649982</v>
+        <v>0.9770344427063833</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004258502903002892</v>
+        <v>0.003017710873152168</v>
       </c>
       <c r="E7">
-        <v>1.173940508682506</v>
+        <v>0.3452421832880503</v>
       </c>
       <c r="F7">
-        <v>0.78144488166744</v>
+        <v>0.3728307665163442</v>
       </c>
       <c r="G7">
-        <v>0.7681436849631496</v>
+        <v>0.2793803970864275</v>
       </c>
       <c r="H7">
-        <v>0.384601046090765</v>
+        <v>0.3229464183999653</v>
       </c>
       <c r="I7">
-        <v>8.951850372969318</v>
+        <v>3.184684259858585</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.388426300190986</v>
+        <v>1.12336677637748</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047042436</v>
+        <v>1.168250105383493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005074435093757046</v>
+        <v>0.00322565360309035</v>
       </c>
       <c r="E8">
-        <v>1.44876550594509</v>
+        <v>0.4162010468717057</v>
       </c>
       <c r="F8">
-        <v>0.9503577801120713</v>
+        <v>0.4152293778963099</v>
       </c>
       <c r="G8">
-        <v>0.9397463654442504</v>
+        <v>0.3244794999739042</v>
       </c>
       <c r="H8">
-        <v>0.4585622545726551</v>
+        <v>0.3390232442816625</v>
       </c>
       <c r="I8">
-        <v>10.79329427806584</v>
+        <v>3.795928923952232</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.907589319884778</v>
+        <v>1.253095441307636</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025615</v>
+        <v>1.539389405566169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006721431169502523</v>
+        <v>0.003644731220816766</v>
       </c>
       <c r="E9">
-        <v>2.017483874186283</v>
+        <v>0.5562976445450403</v>
       </c>
       <c r="F9">
-        <v>1.294198833933351</v>
+        <v>0.5002909339772401</v>
       </c>
       <c r="G9">
-        <v>1.288739143502312</v>
+        <v>0.4140703990656505</v>
       </c>
       <c r="H9">
-        <v>0.6104393485628066</v>
+        <v>0.3722245405283218</v>
       </c>
       <c r="I9">
-        <v>14.43077138200448</v>
+        <v>4.989014804984947</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.966343654729542</v>
+        <v>1.513334097579957</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.239709044502092</v>
+        <v>1.809644099351658</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007977092752810222</v>
+        <v>0.003959326331720803</v>
       </c>
       <c r="E10">
-        <v>2.463144888214842</v>
+        <v>0.6599630079396519</v>
       </c>
       <c r="F10">
-        <v>1.557834171831701</v>
+        <v>0.5639956345128354</v>
       </c>
       <c r="G10">
-        <v>1.556308785808511</v>
+        <v>0.4806440831150098</v>
       </c>
       <c r="H10">
-        <v>0.7278046150333353</v>
+        <v>0.3976543754028228</v>
       </c>
       <c r="I10">
-        <v>17.13355518509053</v>
+        <v>5.861568061238756</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.779924602685014</v>
+        <v>1.70823048577472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.623796921615792</v>
+        <v>1.932050532542917</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008563135149408652</v>
+        <v>0.004103863068408486</v>
       </c>
       <c r="E11">
-        <v>2.674521596467969</v>
+        <v>0.7073182102084701</v>
       </c>
       <c r="F11">
-        <v>1.681013446550395</v>
+        <v>0.5932485116357213</v>
       </c>
       <c r="G11">
-        <v>1.681371632577566</v>
+        <v>0.5111043360739984</v>
       </c>
       <c r="H11">
-        <v>0.782866621990479</v>
+        <v>0.4094518639923876</v>
       </c>
       <c r="I11">
-        <v>18.37337786845427</v>
+        <v>6.25753114434093</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.160604547285118</v>
+        <v>1.797728296575315</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769885678609</v>
+        <v>1.978324344473322</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.008787704167087185</v>
+        <v>0.004158796915575635</v>
       </c>
       <c r="E12">
-        <v>2.756066497554144</v>
+        <v>0.7252814645633805</v>
       </c>
       <c r="F12">
-        <v>1.728207105981014</v>
+        <v>0.604365721277091</v>
       </c>
       <c r="G12">
-        <v>1.729298286119558</v>
+        <v>0.5226648403903766</v>
       </c>
       <c r="H12">
-        <v>0.803997330441689</v>
+        <v>0.4139524800987431</v>
       </c>
       <c r="I12">
-        <v>18.84469284874041</v>
+        <v>6.407322560669854</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.30654847338036</v>
+        <v>1.831741466706262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.738392214588544</v>
+        <v>1.968361989860625</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008739212105059124</v>
+        <v>0.004146957056267553</v>
       </c>
       <c r="E13">
-        <v>2.738433005009682</v>
+        <v>0.7214113434755376</v>
       </c>
       <c r="F13">
-        <v>1.718017316158253</v>
+        <v>0.6019696543234119</v>
       </c>
       <c r="G13">
-        <v>1.718949644460423</v>
+        <v>0.5201739184791165</v>
       </c>
       <c r="H13">
-        <v>0.7994333189917029</v>
+        <v>0.4129817139520924</v>
       </c>
       <c r="I13">
-        <v>18.74309994097524</v>
+        <v>6.375069214559744</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.275032637844561</v>
+        <v>1.824410655378244</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.63580211524868</v>
+        <v>1.935859098657602</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008581554186072538</v>
+        <v>0.004108378505360832</v>
       </c>
       <c r="E14">
-        <v>2.681198627115037</v>
+        <v>0.7087954249356869</v>
       </c>
       <c r="F14">
-        <v>1.684884606224955</v>
+        <v>0.5941623311389179</v>
       </c>
       <c r="G14">
-        <v>1.685302661151781</v>
+        <v>0.5120549037030742</v>
       </c>
       <c r="H14">
-        <v>0.7845992030046318</v>
+        <v>0.409821466670877</v>
       </c>
       <c r="I14">
-        <v>18.41211466341946</v>
+        <v>6.269857673435979</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.172573933209151</v>
+        <v>1.800524119720649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.573050217150239</v>
+        <v>1.915939811075305</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008485346035396191</v>
+        <v>0.00408477407517438</v>
       </c>
       <c r="E15">
-        <v>2.646344802390672</v>
+        <v>0.7010719049055893</v>
       </c>
       <c r="F15">
-        <v>1.664663857490424</v>
+        <v>0.5893853151532795</v>
       </c>
       <c r="G15">
-        <v>1.664769677683609</v>
+        <v>0.5070851600557091</v>
       </c>
       <c r="H15">
-        <v>0.7755505943766252</v>
+        <v>0.4078900483665961</v>
       </c>
       <c r="I15">
-        <v>18.20962447570037</v>
+        <v>6.205392518134659</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.110056509087201</v>
+        <v>1.785908904299276</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.214691192307157</v>
+        <v>1.801633628443199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007939133608239501</v>
+        <v>0.003949908852845851</v>
       </c>
       <c r="E16">
-        <v>2.449525978174464</v>
+        <v>0.6568724169760856</v>
       </c>
       <c r="F16">
-        <v>1.549856206469315</v>
+        <v>0.5620894304974513</v>
       </c>
       <c r="G16">
-        <v>1.5482101214414</v>
+        <v>0.4786570196494324</v>
       </c>
       <c r="H16">
-        <v>0.7242430871727095</v>
+        <v>0.3968880122874339</v>
       </c>
       <c r="I16">
-        <v>17.05276540083537</v>
+        <v>5.835670441680065</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.755281211551505</v>
+        <v>1.702398612130764</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995863217551744</v>
+        <v>1.731372246120657</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007608183454845374</v>
+        <v>0.003867535620365459</v>
       </c>
       <c r="E17">
-        <v>2.331168706861192</v>
+        <v>0.629809763319642</v>
       </c>
       <c r="F17">
-        <v>1.480312321517161</v>
+        <v>0.5454146261146775</v>
       </c>
       <c r="G17">
-        <v>1.477619640781597</v>
+        <v>0.4612626808594769</v>
       </c>
       <c r="H17">
-        <v>0.6932223413563747</v>
+        <v>0.3901974874650023</v>
       </c>
       <c r="I17">
-        <v>16.34593973321427</v>
+        <v>5.608601612490133</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.540526966263201</v>
+        <v>1.651383722660285</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.870334028616981</v>
+        <v>1.690909632147168</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007419189712354779</v>
+        <v>0.003820291157840217</v>
       </c>
       <c r="E18">
-        <v>2.263888576377553</v>
+        <v>0.6142624613427046</v>
       </c>
       <c r="F18">
-        <v>1.440613032443892</v>
+        <v>0.5358494138644119</v>
       </c>
       <c r="G18">
-        <v>1.437326779334853</v>
+        <v>0.4512744032264209</v>
       </c>
       <c r="H18">
-        <v>0.6755347551190596</v>
+        <v>0.3863708487733675</v>
       </c>
       <c r="I18">
-        <v>15.94034052935723</v>
+        <v>5.477907426105048</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.417983711144132</v>
+        <v>1.622120123892898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.827886082259113</v>
+        <v>1.677201143001923</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007355419270940189</v>
+        <v>0.003804318212985436</v>
       </c>
       <c r="E19">
-        <v>2.241238163662473</v>
+        <v>0.6090015003013463</v>
       </c>
       <c r="F19">
-        <v>1.427220847244641</v>
+        <v>0.5326151957723084</v>
       </c>
       <c r="G19">
-        <v>1.423734890859862</v>
+        <v>0.4478953566152768</v>
       </c>
       <c r="H19">
-        <v>0.66957149556535</v>
+        <v>0.3850789144428575</v>
       </c>
       <c r="I19">
-        <v>15.80316478736859</v>
+        <v>5.433641513037287</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.376652997491306</v>
+        <v>1.612225456820568</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.019122345915207</v>
+        <v>1.738856893516015</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00764326951381733</v>
+        <v>0.003876290507584201</v>
       </c>
       <c r="E20">
-        <v>2.343683935536845</v>
+        <v>0.6326887045236589</v>
       </c>
       <c r="F20">
-        <v>1.487683730996764</v>
+        <v>0.5471870247896504</v>
       </c>
       <c r="G20">
-        <v>1.485101550843126</v>
+        <v>0.4631126271809762</v>
       </c>
       <c r="H20">
-        <v>0.6965082693320426</v>
+        <v>0.3909074710753089</v>
       </c>
       <c r="I20">
-        <v>16.4210820678112</v>
+        <v>5.632782903638144</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.563284905654655</v>
+        <v>1.656806175146926</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.665916848071447</v>
+        <v>1.945408141631617</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008627785649217401</v>
+        <v>0.004119704540567426</v>
       </c>
       <c r="E21">
-        <v>2.697966739097112</v>
+        <v>0.7125001682736638</v>
       </c>
       <c r="F21">
-        <v>1.694600906553859</v>
+        <v>0.5964544477321994</v>
       </c>
       <c r="G21">
-        <v>1.695169425529855</v>
+        <v>0.5144389481118878</v>
       </c>
       <c r="H21">
-        <v>0.7889484044630137</v>
+        <v>0.4107488063632729</v>
       </c>
       <c r="I21">
-        <v>18.50928075155701</v>
+        <v>6.30076505272973</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.202617682842231</v>
+        <v>1.807536841490844</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.09244724781388</v>
+        <v>2.079940855282643</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009286977287185749</v>
+        <v>0.00427995902020939</v>
       </c>
       <c r="E22">
-        <v>2.93841341156454</v>
+        <v>0.7648426698322197</v>
       </c>
       <c r="F22">
-        <v>1.83307496087194</v>
+        <v>0.6288856518111032</v>
       </c>
       <c r="G22">
-        <v>1.83582135473074</v>
+        <v>0.5481347357242612</v>
       </c>
       <c r="H22">
-        <v>0.8510172862341676</v>
+        <v>0.4239096552953754</v>
       </c>
       <c r="I22">
-        <v>19.88483939217679</v>
+        <v>6.736443306619492</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.631035743392658</v>
+        <v>1.906761666784462</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864408231950733</v>
+        <v>2.008181005422728</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00893351337317938</v>
+        <v>0.004194322508695336</v>
       </c>
       <c r="E23">
-        <v>2.809170915509966</v>
+        <v>0.7368890891373212</v>
       </c>
       <c r="F23">
-        <v>1.75884252607699</v>
+        <v>0.6115551107116914</v>
       </c>
       <c r="G23">
-        <v>1.760413326892944</v>
+        <v>0.5301366292119667</v>
       </c>
       <c r="H23">
-        <v>0.8177241488519655</v>
+        <v>0.4168677050664655</v>
       </c>
       <c r="I23">
-        <v>19.14956756317582</v>
+        <v>6.503998686294949</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.401315056717635</v>
+        <v>1.853737639943063</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.00860603716302</v>
+        <v>1.735473297350438</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007627403176048375</v>
+        <v>0.003872332070251616</v>
       </c>
       <c r="E24">
-        <v>2.338023436638267</v>
+        <v>0.6313870999755409</v>
       </c>
       <c r="F24">
-        <v>1.484350243086752</v>
+        <v>0.5463856568671588</v>
       </c>
       <c r="G24">
-        <v>1.481718080754149</v>
+        <v>0.4622762292457878</v>
       </c>
       <c r="H24">
-        <v>0.6950222474172563</v>
+        <v>0.3905864257188227</v>
       </c>
       <c r="I24">
-        <v>16.38710786282621</v>
+        <v>5.621851005971507</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.552993189745052</v>
+        <v>1.654354480355209</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.097905588846118</v>
+        <v>1.439406031741498</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006269286364984694</v>
+        <v>0.003530170004353295</v>
       </c>
       <c r="E25">
-        <v>1.859524139094248</v>
+        <v>0.518280098549738</v>
       </c>
       <c r="F25">
-        <v>1.199509197689281</v>
+        <v>0.4770700030462791</v>
       </c>
       <c r="G25">
-        <v>1.192647888632962</v>
+        <v>0.3897053291205168</v>
       </c>
       <c r="H25">
-        <v>0.5684647483349181</v>
+        <v>0.3630617902832967</v>
       </c>
       <c r="I25">
-        <v>13.44254217779059</v>
+        <v>4.666914883151151</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.674513817175978</v>
+        <v>1.442293097308436</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.219803940679071</v>
+        <v>3.434063171571722</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00328276805978156</v>
+        <v>0.005298165396492749</v>
       </c>
       <c r="E2">
-        <v>0.4354855266417559</v>
+        <v>1.52493115089608</v>
       </c>
       <c r="F2">
-        <v>0.4268455756567278</v>
+        <v>0.9968661724061576</v>
       </c>
       <c r="G2">
-        <v>0.3367752227119354</v>
+        <v>0.9869680518151256</v>
       </c>
       <c r="H2">
-        <v>0.3434920082859492</v>
+        <v>0.4790111096858567</v>
       </c>
       <c r="I2">
-        <v>3.961193417866525</v>
+        <v>11.29355081581571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.288635611322178</v>
+        <v>3.050645075630683</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.069997499266549</v>
+        <v>2.986638742122068</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003117985810526136</v>
+        <v>0.004652449416015614</v>
       </c>
       <c r="E3">
-        <v>0.3796236440278449</v>
+        <v>1.306053004890472</v>
       </c>
       <c r="F3">
-        <v>0.3933003553665202</v>
+        <v>0.8628529833462437</v>
       </c>
       <c r="G3">
-        <v>0.3012008603001277</v>
+        <v>0.8508712951368267</v>
       </c>
       <c r="H3">
-        <v>0.3306581927846537</v>
+        <v>0.4201828794666795</v>
       </c>
       <c r="I3">
-        <v>3.481483530427994</v>
+        <v>9.844336852165611</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.186000399322808</v>
+        <v>2.638560695354784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9775436500530645</v>
+        <v>2.7126419304401</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003018255499195988</v>
+        <v>0.004260646586313754</v>
       </c>
       <c r="E4">
-        <v>0.3454298728940586</v>
+        <v>1.174656493552405</v>
       </c>
       <c r="F4">
-        <v>0.3729420886923549</v>
+        <v>0.7818870751447378</v>
       </c>
       <c r="G4">
-        <v>0.2794993337179079</v>
+        <v>0.7685931899413418</v>
       </c>
       <c r="H4">
-        <v>0.3229880749787242</v>
+        <v>0.3847939684976183</v>
       </c>
       <c r="I4">
-        <v>3.186307868167489</v>
+        <v>8.956724654652504</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.123707417123967</v>
+        <v>2.38978459245871</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397517899408854</v>
+        <v>2.601103149140158</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002977983059874845</v>
+        <v>0.004101975997039986</v>
       </c>
       <c r="E5">
-        <v>0.3315199486717546</v>
+        <v>1.121746707635722</v>
       </c>
       <c r="F5">
-        <v>0.3647054950681934</v>
+        <v>0.7491814915978097</v>
       </c>
       <c r="G5">
-        <v>0.2706907303260948</v>
+        <v>0.7353419341014416</v>
       </c>
       <c r="H5">
-        <v>0.3199150623406126</v>
+        <v>0.3705360649489222</v>
       </c>
       <c r="I5">
-        <v>3.065876933603903</v>
+        <v>8.595401611000312</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.098503372127993</v>
+        <v>2.289333870716746</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9334695415156489</v>
+        <v>2.582587512584666</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002971318247256605</v>
+        <v>0.004075683971676014</v>
       </c>
       <c r="E6">
-        <v>0.3292116194363217</v>
+        <v>1.112996220327418</v>
       </c>
       <c r="F6">
-        <v>0.3633413997772692</v>
+        <v>0.7437669979451726</v>
       </c>
       <c r="G6">
-        <v>0.269230162170615</v>
+        <v>0.7298360984162144</v>
       </c>
       <c r="H6">
-        <v>0.3194079646665671</v>
+        <v>0.3681778445340314</v>
       </c>
       <c r="I6">
-        <v>3.04587117873993</v>
+        <v>8.535422914870196</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.094329137056548</v>
+        <v>2.272706244722855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9770344427063833</v>
+        <v>2.711137286499593</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003017710873152168</v>
+        <v>0.004258502903004668</v>
       </c>
       <c r="E7">
-        <v>0.3452421832880503</v>
+        <v>1.17394050868252</v>
       </c>
       <c r="F7">
-        <v>0.3728307665163442</v>
+        <v>0.78144488166744</v>
       </c>
       <c r="G7">
-        <v>0.2793803970864275</v>
+        <v>0.7681436849631353</v>
       </c>
       <c r="H7">
-        <v>0.3229464183999653</v>
+        <v>0.3846010460906371</v>
       </c>
       <c r="I7">
-        <v>3.184684259858585</v>
+        <v>8.951850372969403</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.12336677637748</v>
+        <v>2.388426300190986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.168250105383493</v>
+        <v>3.279600047043175</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00322565360309035</v>
+        <v>0.005074435093760599</v>
       </c>
       <c r="E8">
-        <v>0.4162010468717057</v>
+        <v>1.44876550594509</v>
       </c>
       <c r="F8">
-        <v>0.4152293778963099</v>
+        <v>0.9503577801120855</v>
       </c>
       <c r="G8">
-        <v>0.3244794999739042</v>
+        <v>0.939746365444222</v>
       </c>
       <c r="H8">
-        <v>0.3390232442816625</v>
+        <v>0.4585622545726693</v>
       </c>
       <c r="I8">
-        <v>3.795928923952232</v>
+        <v>10.79329427806584</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.253095441307636</v>
+        <v>2.907589319884806</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.539389405566169</v>
+        <v>4.403388309025559</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003644731220816766</v>
+        <v>0.006721431169316006</v>
       </c>
       <c r="E9">
-        <v>0.5562976445450403</v>
+        <v>2.017483874186297</v>
       </c>
       <c r="F9">
-        <v>0.5002909339772401</v>
+        <v>1.294198833933336</v>
       </c>
       <c r="G9">
-        <v>0.4140703990656505</v>
+        <v>1.288739143502312</v>
       </c>
       <c r="H9">
-        <v>0.3722245405283218</v>
+        <v>0.6104393485629203</v>
       </c>
       <c r="I9">
-        <v>4.989014804984947</v>
+        <v>14.43077138200431</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.513334097579957</v>
+        <v>3.966343654729485</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.809644099351658</v>
+        <v>5.239709044502376</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.003959326331720803</v>
+        <v>0.007977092752703641</v>
       </c>
       <c r="E10">
-        <v>0.6599630079396519</v>
+        <v>2.463144888214813</v>
       </c>
       <c r="F10">
-        <v>0.5639956345128354</v>
+        <v>1.557834171831686</v>
       </c>
       <c r="G10">
-        <v>0.4806440831150098</v>
+        <v>1.556308785808454</v>
       </c>
       <c r="H10">
-        <v>0.3976543754028228</v>
+        <v>0.7278046150333353</v>
       </c>
       <c r="I10">
-        <v>5.861568061238756</v>
+        <v>17.13355518509042</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.70823048577472</v>
+        <v>4.779924602685014</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.932050532542917</v>
+        <v>5.623796921615394</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.004103863068408486</v>
+        <v>0.008563135149493917</v>
       </c>
       <c r="E11">
-        <v>0.7073182102084701</v>
+        <v>2.674521596467926</v>
       </c>
       <c r="F11">
-        <v>0.5932485116357213</v>
+        <v>1.681013446550395</v>
       </c>
       <c r="G11">
-        <v>0.5111043360739984</v>
+        <v>1.681371632577537</v>
       </c>
       <c r="H11">
-        <v>0.4094518639923876</v>
+        <v>0.782866621990479</v>
       </c>
       <c r="I11">
-        <v>6.25753114434093</v>
+        <v>18.37337786845438</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.797728296575315</v>
+        <v>5.160604547285118</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.978324344473322</v>
+        <v>5.769885678609853</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.004158796915575635</v>
+        <v>0.008787704166895338</v>
       </c>
       <c r="E12">
-        <v>0.7252814645633805</v>
+        <v>2.75606649755413</v>
       </c>
       <c r="F12">
-        <v>0.604365721277091</v>
+        <v>1.728207105980999</v>
       </c>
       <c r="G12">
-        <v>0.5226648403903766</v>
+        <v>1.729298286119644</v>
       </c>
       <c r="H12">
-        <v>0.4139524800987431</v>
+        <v>0.8039973304417174</v>
       </c>
       <c r="I12">
-        <v>6.407322560669854</v>
+        <v>18.84469284874035</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.831741466706262</v>
+        <v>5.306548473380303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.968361989860625</v>
+        <v>5.73839221458843</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.004146957056267553</v>
+        <v>0.008739212105052019</v>
       </c>
       <c r="E13">
-        <v>0.7214113434755376</v>
+        <v>2.738433005009711</v>
       </c>
       <c r="F13">
-        <v>0.6019696543234119</v>
+        <v>1.718017316158267</v>
       </c>
       <c r="G13">
-        <v>0.5201739184791165</v>
+        <v>1.718949644460395</v>
       </c>
       <c r="H13">
-        <v>0.4129817139520924</v>
+        <v>0.7994333189917029</v>
       </c>
       <c r="I13">
-        <v>6.375069214559744</v>
+        <v>18.74309994097513</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.824410655378244</v>
+        <v>5.275032637844561</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935859098657602</v>
+        <v>5.635802115248225</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.004108378505360832</v>
+        <v>0.008581554186292806</v>
       </c>
       <c r="E14">
-        <v>0.7087954249356869</v>
+        <v>2.681198627114995</v>
       </c>
       <c r="F14">
-        <v>0.5941623311389179</v>
+        <v>1.684884606224955</v>
       </c>
       <c r="G14">
-        <v>0.5120549037030742</v>
+        <v>1.685302661151809</v>
       </c>
       <c r="H14">
-        <v>0.409821466670877</v>
+        <v>0.7845992030046318</v>
       </c>
       <c r="I14">
-        <v>6.269857673435979</v>
+        <v>18.41211466341952</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.800524119720649</v>
+        <v>5.172573933209208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915939811075305</v>
+        <v>5.573050217149614</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00408477407517438</v>
+        <v>0.008485346035396191</v>
       </c>
       <c r="E15">
-        <v>0.7010719049055893</v>
+        <v>2.646344802390672</v>
       </c>
       <c r="F15">
-        <v>0.5893853151532795</v>
+        <v>1.66466385749041</v>
       </c>
       <c r="G15">
-        <v>0.5070851600557091</v>
+        <v>1.664769677683552</v>
       </c>
       <c r="H15">
-        <v>0.4078900483665961</v>
+        <v>0.7755505943766252</v>
       </c>
       <c r="I15">
-        <v>6.205392518134659</v>
+        <v>18.20962447570048</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.785908904299276</v>
+        <v>5.110056509087201</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.801633628443199</v>
+        <v>5.214691192307384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.003949908852845851</v>
+        <v>0.007939133608349636</v>
       </c>
       <c r="E16">
-        <v>0.6568724169760856</v>
+        <v>2.449525978174492</v>
       </c>
       <c r="F16">
-        <v>0.5620894304974513</v>
+        <v>1.5498562064693</v>
       </c>
       <c r="G16">
-        <v>0.4786570196494324</v>
+        <v>1.548210121441343</v>
       </c>
       <c r="H16">
-        <v>0.3968880122874339</v>
+        <v>0.7242430871725958</v>
       </c>
       <c r="I16">
-        <v>5.835670441680065</v>
+        <v>17.0527654008352</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.702398612130764</v>
+        <v>4.755281211551448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731372246120657</v>
+        <v>4.995863217551403</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.003867535620365459</v>
+        <v>0.007608183454763662</v>
       </c>
       <c r="E17">
-        <v>0.629809763319642</v>
+        <v>2.331168706861177</v>
       </c>
       <c r="F17">
-        <v>0.5454146261146775</v>
+        <v>1.480312321517161</v>
       </c>
       <c r="G17">
-        <v>0.4612626808594769</v>
+        <v>1.477619640781569</v>
       </c>
       <c r="H17">
-        <v>0.3901974874650023</v>
+        <v>0.6932223413564884</v>
       </c>
       <c r="I17">
-        <v>5.608601612490133</v>
+        <v>16.34593973321421</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.651383722660285</v>
+        <v>4.540526966263258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.690909632147168</v>
+        <v>4.870334028616981</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.003820291157840217</v>
+        <v>0.007419189712354779</v>
       </c>
       <c r="E18">
-        <v>0.6142624613427046</v>
+        <v>2.263888576377539</v>
       </c>
       <c r="F18">
-        <v>0.5358494138644119</v>
+        <v>1.440613032443892</v>
       </c>
       <c r="G18">
-        <v>0.4512744032264209</v>
+        <v>1.437326779334882</v>
       </c>
       <c r="H18">
-        <v>0.3863708487733675</v>
+        <v>0.6755347551190312</v>
       </c>
       <c r="I18">
-        <v>5.477907426105048</v>
+        <v>15.94034052935723</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.622120123892898</v>
+        <v>4.417983711144075</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.677201143001923</v>
+        <v>4.827886082259226</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.003804318212985436</v>
+        <v>0.00735541927104677</v>
       </c>
       <c r="E19">
-        <v>0.6090015003013463</v>
+        <v>2.241238163662516</v>
       </c>
       <c r="F19">
-        <v>0.5326151957723084</v>
+        <v>1.427220847244641</v>
       </c>
       <c r="G19">
-        <v>0.4478953566152768</v>
+        <v>1.42373489085989</v>
       </c>
       <c r="H19">
-        <v>0.3850789144428575</v>
+        <v>0.66957149556535</v>
       </c>
       <c r="I19">
-        <v>5.433641513037287</v>
+        <v>15.80316478736864</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.612225456820568</v>
+        <v>4.376652997491249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.738856893516015</v>
+        <v>5.01912234591407</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.003876290507584201</v>
+        <v>0.007643269513998519</v>
       </c>
       <c r="E20">
-        <v>0.6326887045236589</v>
+        <v>2.343683935536859</v>
       </c>
       <c r="F20">
-        <v>0.5471870247896504</v>
+        <v>1.48768373099675</v>
       </c>
       <c r="G20">
-        <v>0.4631126271809762</v>
+        <v>1.485101550843098</v>
       </c>
       <c r="H20">
-        <v>0.3909074710753089</v>
+        <v>0.6965082693321847</v>
       </c>
       <c r="I20">
-        <v>5.632782903638144</v>
+        <v>16.42108206781103</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.656806175146926</v>
+        <v>4.563284905654655</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945408141631617</v>
+        <v>5.665916848072868</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.004119704540567426</v>
+        <v>0.008627785649217401</v>
       </c>
       <c r="E21">
-        <v>0.7125001682736638</v>
+        <v>2.697966739097097</v>
       </c>
       <c r="F21">
-        <v>0.5964544477321994</v>
+        <v>1.694600906553859</v>
       </c>
       <c r="G21">
-        <v>0.5144389481118878</v>
+        <v>1.695169425529826</v>
       </c>
       <c r="H21">
-        <v>0.4107488063632729</v>
+        <v>0.7889484044629</v>
       </c>
       <c r="I21">
-        <v>6.30076505272973</v>
+        <v>18.50928075155713</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.807536841490844</v>
+        <v>5.202617682842231</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.079940855282643</v>
+        <v>6.092447247813993</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.00427995902020939</v>
+        <v>0.009286977287185749</v>
       </c>
       <c r="E22">
-        <v>0.7648426698322197</v>
+        <v>2.93841341156454</v>
       </c>
       <c r="F22">
-        <v>0.6288856518111032</v>
+        <v>1.833074960871926</v>
       </c>
       <c r="G22">
-        <v>0.5481347357242612</v>
+        <v>1.835821354730712</v>
       </c>
       <c r="H22">
-        <v>0.4239096552953754</v>
+        <v>0.8510172862341676</v>
       </c>
       <c r="I22">
-        <v>6.736443306619492</v>
+        <v>19.8848393921765</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.906761666784462</v>
+        <v>5.631035743392715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.008181005422728</v>
+        <v>5.864408231949994</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.004194322508695336</v>
+        <v>0.008933513373264645</v>
       </c>
       <c r="E23">
-        <v>0.7368890891373212</v>
+        <v>2.809170915509924</v>
       </c>
       <c r="F23">
-        <v>0.6115551107116914</v>
+        <v>1.758842526077004</v>
       </c>
       <c r="G23">
-        <v>0.5301366292119667</v>
+        <v>1.760413326892916</v>
       </c>
       <c r="H23">
-        <v>0.4168677050664655</v>
+        <v>0.8177241488518803</v>
       </c>
       <c r="I23">
-        <v>6.503998686294949</v>
+        <v>19.14956756317599</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.853737639943063</v>
+        <v>5.401315056717692</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.735473297350438</v>
+        <v>5.008606037163418</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.003872332070251616</v>
+        <v>0.007627403176126535</v>
       </c>
       <c r="E24">
-        <v>0.6313870999755409</v>
+        <v>2.338023436638267</v>
       </c>
       <c r="F24">
-        <v>0.5463856568671588</v>
+        <v>1.484350243086766</v>
       </c>
       <c r="G24">
-        <v>0.4622762292457878</v>
+        <v>1.481718080754206</v>
       </c>
       <c r="H24">
-        <v>0.3905864257188227</v>
+        <v>0.6950222474172847</v>
       </c>
       <c r="I24">
-        <v>5.621851005971507</v>
+        <v>16.3871078628261</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.654354480355209</v>
+        <v>4.552993189744996</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.439406031741498</v>
+        <v>4.097905588846174</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.003530170004353295</v>
+        <v>0.006269286364911864</v>
       </c>
       <c r="E25">
-        <v>0.518280098549738</v>
+        <v>1.859524139094276</v>
       </c>
       <c r="F25">
-        <v>0.4770700030462791</v>
+        <v>1.199509197689281</v>
       </c>
       <c r="G25">
-        <v>0.3897053291205168</v>
+        <v>1.192647888633019</v>
       </c>
       <c r="H25">
-        <v>0.3630617902832967</v>
+        <v>0.5684647483350318</v>
       </c>
       <c r="I25">
-        <v>4.666914883151151</v>
+        <v>13.44254217779053</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.442293097308436</v>
+        <v>3.674513817175978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.434063171571722</v>
+        <v>0.8727976303252376</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005298165396492749</v>
+        <v>0.07740685554126259</v>
       </c>
       <c r="E2">
-        <v>1.52493115089608</v>
+        <v>0.1507327262759555</v>
       </c>
       <c r="F2">
-        <v>0.9968661724061576</v>
+        <v>0.3300286048811003</v>
       </c>
       <c r="G2">
-        <v>0.9869680518151256</v>
+        <v>0.2256029320809745</v>
       </c>
       <c r="H2">
-        <v>0.4790111096858567</v>
+        <v>0.004402144580834433</v>
       </c>
       <c r="I2">
-        <v>11.29355081581571</v>
+        <v>0.01688240305551103</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2164238336104773</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.39292757119388</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.567338609868131</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3225151650468518</v>
       </c>
       <c r="O2">
-        <v>3.050645075630683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8808110062118857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.986638742122068</v>
+        <v>0.7642224651417564</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004652449416015614</v>
+        <v>0.06831266739659725</v>
       </c>
       <c r="E3">
-        <v>1.306053004890472</v>
+        <v>0.1472414667943625</v>
       </c>
       <c r="F3">
-        <v>0.8628529833462437</v>
+        <v>0.3114120551370618</v>
       </c>
       <c r="G3">
-        <v>0.8508712951368267</v>
+        <v>0.2154758460860151</v>
       </c>
       <c r="H3">
-        <v>0.4201828794666795</v>
+        <v>0.005880513547230432</v>
       </c>
       <c r="I3">
-        <v>9.844336852165611</v>
+        <v>0.01928864669691066</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2160295490533599</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4035568323142478</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.394556849476146</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2811661991752175</v>
       </c>
       <c r="O3">
-        <v>2.638560695354784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8582382537141626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.7126419304401</v>
+        <v>0.6969852880886833</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004260646586313754</v>
+        <v>0.06273608885932447</v>
       </c>
       <c r="E4">
-        <v>1.174656493552405</v>
+        <v>0.1450115454816041</v>
       </c>
       <c r="F4">
-        <v>0.7818870751447378</v>
+        <v>0.3003976777362141</v>
       </c>
       <c r="G4">
-        <v>0.7685931899413418</v>
+        <v>0.2095982252284401</v>
       </c>
       <c r="H4">
-        <v>0.3847939684976183</v>
+        <v>0.00693441164348288</v>
       </c>
       <c r="I4">
-        <v>8.956724654652504</v>
+        <v>0.02093776307606943</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2160333483884571</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4102759905111775</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.288775289173003</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2558926053425665</v>
       </c>
       <c r="O4">
-        <v>2.38978459245871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8456077369088462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.601103149140158</v>
+        <v>0.6683133823400453</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004101975997039986</v>
+        <v>0.06052092765781936</v>
       </c>
       <c r="E5">
-        <v>1.121746707635722</v>
+        <v>0.1439384600379867</v>
       </c>
       <c r="F5">
-        <v>0.7491814915978097</v>
+        <v>0.2956904504494418</v>
       </c>
       <c r="G5">
-        <v>0.7353419341014416</v>
+        <v>0.2069825027577892</v>
       </c>
       <c r="H5">
-        <v>0.3705360649489222</v>
+        <v>0.00740294827593474</v>
       </c>
       <c r="I5">
-        <v>8.595401611000312</v>
+        <v>0.02174670926048705</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2159321609483342</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4126750602150242</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.247327320781153</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2459564490472559</v>
       </c>
       <c r="O5">
-        <v>2.289333870716746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8397761778702062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.582587512584666</v>
+        <v>0.6621619492093487</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004075683971676014</v>
+        <v>0.06022191175541991</v>
       </c>
       <c r="E6">
-        <v>1.112996220327418</v>
+        <v>0.1435860285249184</v>
       </c>
       <c r="F6">
-        <v>0.7437669979451726</v>
+        <v>0.29452574934691</v>
       </c>
       <c r="G6">
-        <v>0.7298360984162144</v>
+        <v>0.2061844838932814</v>
       </c>
       <c r="H6">
-        <v>0.3681778445340314</v>
+        <v>0.007487251123044131</v>
       </c>
       <c r="I6">
-        <v>8.535422914870196</v>
+        <v>0.02200669519512832</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2157202209089064</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4126064321369558</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.242401913716861</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2447210024770072</v>
       </c>
       <c r="O6">
-        <v>2.272706244722855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8376281631167046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.711137286499593</v>
+        <v>0.6928128663527957</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004258502903004668</v>
+        <v>0.06289459573719114</v>
       </c>
       <c r="E7">
-        <v>1.17394050868252</v>
+        <v>0.1445260120523741</v>
       </c>
       <c r="F7">
-        <v>0.78144488166744</v>
+        <v>0.2992727092890135</v>
       </c>
       <c r="G7">
-        <v>0.7681436849631353</v>
+        <v>0.2085576170057166</v>
       </c>
       <c r="H7">
-        <v>0.3846010460906371</v>
+        <v>0.006951831179409618</v>
       </c>
       <c r="I7">
-        <v>8.951850372969403</v>
+        <v>0.02126780399773409</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2154908088046099</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4090311808117093</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.293569311419475</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2568885033450101</v>
       </c>
       <c r="O7">
-        <v>2.388426300190986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8422647350330266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.279600047043175</v>
+        <v>0.8304271079713601</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005074435093760599</v>
+        <v>0.07452139995795193</v>
       </c>
       <c r="E8">
-        <v>1.44876550594509</v>
+        <v>0.1489332122300251</v>
       </c>
       <c r="F8">
-        <v>0.9503577801120855</v>
+        <v>0.322122016680126</v>
       </c>
       <c r="G8">
-        <v>0.939746365444222</v>
+        <v>0.2207151995591801</v>
       </c>
       <c r="H8">
-        <v>0.4585622545726693</v>
+        <v>0.004892302097259493</v>
       </c>
       <c r="I8">
-        <v>10.79329427806584</v>
+        <v>0.01806129788259181</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2155280478827564</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3949027122628568</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.514864163050618</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3097387792549284</v>
       </c>
       <c r="O8">
-        <v>2.907589319884806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.86847938055638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.403388309025559</v>
+        <v>1.10255951795952</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006721431169316006</v>
+        <v>0.09706606344917645</v>
       </c>
       <c r="E9">
-        <v>2.017483874186297</v>
+        <v>0.1577335152145878</v>
       </c>
       <c r="F9">
-        <v>1.294198833933336</v>
+        <v>0.3723765680842135</v>
       </c>
       <c r="G9">
-        <v>1.288739143502312</v>
+        <v>0.2492659034101905</v>
       </c>
       <c r="H9">
-        <v>0.6104393485629203</v>
+        <v>0.002060016756188499</v>
       </c>
       <c r="I9">
-        <v>14.43077138200431</v>
+        <v>0.01269619697662083</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2186003474561247</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3709774306946532</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.942087622297834</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4123833697499606</v>
       </c>
       <c r="O9">
-        <v>3.966343654729485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9360925084206428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.239709044502376</v>
+        <v>1.283763656579652</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007977092752703641</v>
+        <v>0.1148456730077356</v>
       </c>
       <c r="E10">
-        <v>2.463144888214813</v>
+        <v>0.1602797602923038</v>
       </c>
       <c r="F10">
-        <v>1.557834171831686</v>
+        <v>0.4060154829232161</v>
       </c>
       <c r="G10">
-        <v>1.556308785808454</v>
+        <v>0.2668714911525853</v>
       </c>
       <c r="H10">
-        <v>0.7278046150333353</v>
+        <v>0.001070285206029364</v>
       </c>
       <c r="I10">
-        <v>17.13355518509042</v>
+        <v>0.009934200121229253</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2193891950734823</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3492522481759348</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.281435352663635</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4726088925566074</v>
       </c>
       <c r="O10">
-        <v>4.779924602685014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9755133878639271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.623796921615394</v>
+        <v>1.238808182002828</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.008563135149493917</v>
+        <v>0.1326416099824002</v>
       </c>
       <c r="E11">
-        <v>2.674521596467926</v>
+        <v>0.1477848211583002</v>
       </c>
       <c r="F11">
-        <v>1.681013446550395</v>
+        <v>0.3749758976273583</v>
       </c>
       <c r="G11">
-        <v>1.681371632577537</v>
+        <v>0.2320238345931145</v>
       </c>
       <c r="H11">
-        <v>0.782866621990479</v>
+        <v>0.019755974788918</v>
       </c>
       <c r="I11">
-        <v>18.37337786845438</v>
+        <v>0.01004395914692324</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1973817955025652</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3072279317137969</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.629910489722931</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.367043567326462</v>
       </c>
       <c r="O11">
-        <v>5.160604547285118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8557563935993642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.769885678609853</v>
+        <v>1.169477633761602</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.008787704166895338</v>
+        <v>0.1441860683244016</v>
       </c>
       <c r="E12">
-        <v>2.75606649755413</v>
+        <v>0.1576729456016714</v>
       </c>
       <c r="F12">
-        <v>1.728207105980999</v>
+        <v>0.3438607429379488</v>
       </c>
       <c r="G12">
-        <v>1.729298286119644</v>
+        <v>0.2019211138588943</v>
       </c>
       <c r="H12">
-        <v>0.8039973304417174</v>
+        <v>0.05859282975140445</v>
       </c>
       <c r="I12">
-        <v>18.84469284874035</v>
+        <v>0.01008565028048292</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1800264930248829</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2887249921308541</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.855984169904445</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2760309445231286</v>
       </c>
       <c r="O12">
-        <v>5.306548473380303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7556791071109217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.73839221458843</v>
+        <v>1.071867895716139</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008739212105052019</v>
+        <v>0.1517661449512673</v>
       </c>
       <c r="E13">
-        <v>2.738433005009711</v>
+        <v>0.1839496133660603</v>
       </c>
       <c r="F13">
-        <v>1.718017316158267</v>
+        <v>0.3090538203597077</v>
       </c>
       <c r="G13">
-        <v>1.718949644460395</v>
+        <v>0.1719921974721714</v>
       </c>
       <c r="H13">
-        <v>0.7994333189917029</v>
+        <v>0.1145764141535039</v>
       </c>
       <c r="I13">
-        <v>18.74309994097513</v>
+        <v>0.01053275101070916</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1642902652069296</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2847180058913308</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.007065518674807</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1931968773637465</v>
       </c>
       <c r="O13">
-        <v>5.275032637844561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6592724738917184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.635802115248225</v>
+        <v>0.9904476183662894</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.008581554186292806</v>
+        <v>0.1553517395647503</v>
       </c>
       <c r="E14">
-        <v>2.681198627114995</v>
+        <v>0.212210610404636</v>
       </c>
       <c r="F14">
-        <v>1.684884606224955</v>
+        <v>0.2830119736482359</v>
       </c>
       <c r="G14">
-        <v>1.685302661151809</v>
+        <v>0.1512309348949046</v>
       </c>
       <c r="H14">
-        <v>0.7845992030046318</v>
+        <v>0.1641136802742693</v>
       </c>
       <c r="I14">
-        <v>18.41211466341952</v>
+        <v>0.01113149091913712</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1540211728976288</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2896375797561195</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.081016454456773</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.141337622745894</v>
       </c>
       <c r="O14">
-        <v>5.172573933209208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5937107020320553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.573050217149614</v>
+        <v>0.9633547988277371</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.008485346035396191</v>
+        <v>0.1553753700562481</v>
       </c>
       <c r="E15">
-        <v>2.646344802390672</v>
+        <v>0.2201466656873414</v>
       </c>
       <c r="F15">
-        <v>1.66466385749041</v>
+        <v>0.2754985381321475</v>
       </c>
       <c r="G15">
-        <v>1.664769677683552</v>
+        <v>0.1457530038348125</v>
       </c>
       <c r="H15">
-        <v>0.7755505943766252</v>
+        <v>0.1767095196691884</v>
       </c>
       <c r="I15">
-        <v>18.20962447570048</v>
+        <v>0.01151835622775899</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1516389984983633</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.292595500716228</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.083671441788823</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1291725085044106</v>
       </c>
       <c r="O15">
-        <v>5.110056509087201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.577078886583152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.214691192307384</v>
+        <v>0.9058655150063828</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.007939133608349636</v>
+        <v>0.1459881767195128</v>
       </c>
       <c r="E16">
-        <v>2.449525978174492</v>
+        <v>0.2125610689782427</v>
       </c>
       <c r="F16">
-        <v>1.5498562064693</v>
+        <v>0.2673103461800892</v>
       </c>
       <c r="G16">
-        <v>1.548210121441343</v>
+        <v>0.1435029766850917</v>
       </c>
       <c r="H16">
-        <v>0.7242430871725958</v>
+        <v>0.1644396416873946</v>
       </c>
       <c r="I16">
-        <v>17.0527654008352</v>
+        <v>0.01281283872056349</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1539460790019689</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3009149255529096</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.90393334486393</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1230620908592925</v>
       </c>
       <c r="O16">
-        <v>4.755281211551448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5769501419579655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.995863217551403</v>
+        <v>0.9043044427057794</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.007608183454763662</v>
+        <v>0.1369113494335323</v>
       </c>
       <c r="E17">
-        <v>2.331168706861177</v>
+        <v>0.1901011378173543</v>
       </c>
       <c r="F17">
-        <v>1.480312321517161</v>
+        <v>0.2748566905271588</v>
       </c>
       <c r="G17">
-        <v>1.477619640781569</v>
+        <v>0.1527139693103052</v>
       </c>
       <c r="H17">
-        <v>0.6932223413564884</v>
+        <v>0.1269233005336758</v>
       </c>
       <c r="I17">
-        <v>16.34593973321421</v>
+        <v>0.01351928587958184</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1611702913984843</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3039850678041951</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.727386389367638</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1444434994693964</v>
       </c>
       <c r="O17">
-        <v>4.540526966263258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6114829937893091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.870334028616981</v>
+        <v>0.9544039162053934</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007419189712354779</v>
+        <v>0.1270988154869315</v>
       </c>
       <c r="E18">
-        <v>2.263888576377539</v>
+        <v>0.1614958228446728</v>
       </c>
       <c r="F18">
-        <v>1.440613032443892</v>
+        <v>0.2978997782448758</v>
       </c>
       <c r="G18">
-        <v>1.437326779334882</v>
+        <v>0.1742808186858085</v>
       </c>
       <c r="H18">
-        <v>0.6755347551190312</v>
+        <v>0.07410597627601589</v>
       </c>
       <c r="I18">
-        <v>15.94034052935723</v>
+        <v>0.01337986530584612</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1741220355101589</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3080138222645346</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.532806904719166</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1978455602149722</v>
       </c>
       <c r="O18">
-        <v>4.417983711144075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6842509207192222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.827886082259226</v>
+        <v>1.037633440143935</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.00735541927104677</v>
+        <v>0.1181224984424745</v>
       </c>
       <c r="E19">
-        <v>2.241238163662516</v>
+        <v>0.1450391497192216</v>
       </c>
       <c r="F19">
-        <v>1.427220847244641</v>
+        <v>0.3308671369739997</v>
       </c>
       <c r="G19">
-        <v>1.42373489085989</v>
+        <v>0.2041812261663054</v>
       </c>
       <c r="H19">
-        <v>0.66957149556535</v>
+        <v>0.0285343448709412</v>
       </c>
       <c r="I19">
-        <v>15.80316478736864</v>
+        <v>0.01313162918903021</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1905343668249699</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3198778719339637</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.356375751309713</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2847840626399432</v>
       </c>
       <c r="O19">
-        <v>4.376652997491249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7819785033705529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.01912234591407</v>
+        <v>1.223783755753459</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.007643269513998519</v>
+        <v>0.1108211222324371</v>
       </c>
       <c r="E20">
-        <v>2.343683935536859</v>
+        <v>0.1581942013445694</v>
       </c>
       <c r="F20">
-        <v>1.48768373099675</v>
+        <v>0.3935295463745021</v>
       </c>
       <c r="G20">
-        <v>1.485101550843098</v>
+        <v>0.2588332774758442</v>
       </c>
       <c r="H20">
-        <v>0.6965082693321847</v>
+        <v>0.001273093260942826</v>
       </c>
       <c r="I20">
-        <v>16.42108206781103</v>
+        <v>0.0115384077538474</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.217356798803813</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3511640031138885</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.210372224801432</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4596242234500352</v>
       </c>
       <c r="O20">
-        <v>4.563284905654655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9541034129819224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.665916848072868</v>
+        <v>1.386028517444373</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008627785649217401</v>
+        <v>0.1227944804404189</v>
       </c>
       <c r="E21">
-        <v>2.697966739097097</v>
+        <v>0.1654195329050907</v>
       </c>
       <c r="F21">
-        <v>1.694600906553859</v>
+        <v>0.4291827795525336</v>
       </c>
       <c r="G21">
-        <v>1.695169425529826</v>
+        <v>0.28149671106695</v>
       </c>
       <c r="H21">
-        <v>0.7889484044629</v>
+        <v>0.0004131357861721918</v>
       </c>
       <c r="I21">
-        <v>18.50928075155713</v>
+        <v>0.009376957432419175</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2228209999314714</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3426886571748611</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.437192710444577</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5310912199735611</v>
       </c>
       <c r="O21">
-        <v>5.202617682842231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.013922044223278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.092447247813993</v>
+        <v>1.489496417963807</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.009286977287185749</v>
+        <v>0.1309177124802119</v>
       </c>
       <c r="E22">
-        <v>2.93841341156454</v>
+        <v>0.1689877473087087</v>
       </c>
       <c r="F22">
-        <v>1.833074960871926</v>
+        <v>0.4517127160889416</v>
       </c>
       <c r="G22">
-        <v>1.835821354730712</v>
+        <v>0.2955271527522285</v>
       </c>
       <c r="H22">
-        <v>0.8510172862341676</v>
+        <v>0.0001479979511642693</v>
       </c>
       <c r="I22">
-        <v>19.8848393921765</v>
+        <v>0.007837913702215538</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2260341938358437</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.33652213912546</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.589142746882317</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5680378732832878</v>
       </c>
       <c r="O22">
-        <v>5.631035743392715</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.05060407723073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.864408231949994</v>
+        <v>1.438902240997891</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008933513373264645</v>
+        <v>0.126347401130289</v>
       </c>
       <c r="E23">
-        <v>2.809170915509924</v>
+        <v>0.1675973596579912</v>
       </c>
       <c r="F23">
-        <v>1.758842526077004</v>
+        <v>0.4408559322610159</v>
       </c>
       <c r="G23">
-        <v>1.760413326892916</v>
+        <v>0.2891431679805478</v>
       </c>
       <c r="H23">
-        <v>0.8177241488518803</v>
+        <v>0.0002705037293795343</v>
       </c>
       <c r="I23">
-        <v>19.14956756317599</v>
+        <v>0.008288611769811105</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2248982055103923</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.341128970863311</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.501350322854535</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5469255086131426</v>
       </c>
       <c r="O23">
-        <v>5.401315056717692</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.03457957299878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.008606037163418</v>
+        <v>1.239151493061911</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007627403176126535</v>
+        <v>0.1094604466969571</v>
       </c>
       <c r="E24">
-        <v>2.338023436638267</v>
+        <v>0.1614277469336116</v>
       </c>
       <c r="F24">
-        <v>1.484350243086766</v>
+        <v>0.3990411601315316</v>
       </c>
       <c r="G24">
-        <v>1.481718080754206</v>
+        <v>0.264188195711931</v>
       </c>
       <c r="H24">
-        <v>0.6950222474172847</v>
+        <v>0.001097216035339077</v>
       </c>
       <c r="I24">
-        <v>16.3871078628261</v>
+        <v>0.01092165335372197</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2202656272285637</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3569359381772301</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.180654802819163</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.469529847040917</v>
       </c>
       <c r="O24">
-        <v>4.552993189744996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9715402697836453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.097905588846174</v>
+        <v>1.022475393115855</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006269286364911864</v>
+        <v>0.09130293860856398</v>
       </c>
       <c r="E25">
-        <v>1.859524139094276</v>
+        <v>0.1546097328228262</v>
       </c>
       <c r="F25">
-        <v>1.199509197689281</v>
+        <v>0.3564659836521571</v>
       </c>
       <c r="G25">
-        <v>1.192647888633019</v>
+        <v>0.2394064141445753</v>
       </c>
       <c r="H25">
-        <v>0.5684647483350318</v>
+        <v>0.00269714799128673</v>
       </c>
       <c r="I25">
-        <v>13.44254217779053</v>
+        <v>0.01451918857380452</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.216584672001197</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3751146680519764</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.836065396209449</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3865621175028764</v>
       </c>
       <c r="O25">
-        <v>3.674513817175978</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9108000050800058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8727976303252376</v>
+        <v>0.836005154632204</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07740685554126259</v>
+        <v>0.07851050431510487</v>
       </c>
       <c r="E2">
-        <v>0.1507327262759555</v>
+        <v>0.1322854552091455</v>
       </c>
       <c r="F2">
-        <v>0.3300286048811003</v>
+        <v>0.3218767919011825</v>
       </c>
       <c r="G2">
-        <v>0.2256029320809745</v>
+        <v>0.2007588533476152</v>
       </c>
       <c r="H2">
-        <v>0.004402144580834433</v>
+        <v>0.002867300467688016</v>
       </c>
       <c r="I2">
-        <v>0.01688240305551103</v>
+        <v>0.01148932997237306</v>
       </c>
       <c r="J2">
-        <v>0.2164238336104773</v>
+        <v>0.251475875614787</v>
       </c>
       <c r="K2">
-        <v>0.39292757119388</v>
+        <v>0.3454966972252667</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1465319964721239</v>
       </c>
       <c r="M2">
-        <v>1.567338609868131</v>
+        <v>0.1144881715341084</v>
       </c>
       <c r="N2">
-        <v>0.3225151650468518</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.580203368815717</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3325054645774941</v>
       </c>
       <c r="Q2">
-        <v>0.8808110062118857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8543012705608248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7642224651417564</v>
+        <v>0.7350924144128044</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06831266739659725</v>
+        <v>0.06893836144343624</v>
       </c>
       <c r="E3">
-        <v>0.1472414667943625</v>
+        <v>0.1295696148289158</v>
       </c>
       <c r="F3">
-        <v>0.3114120551370618</v>
+        <v>0.3050915660340436</v>
       </c>
       <c r="G3">
-        <v>0.2154758460860151</v>
+        <v>0.1921947639231263</v>
       </c>
       <c r="H3">
-        <v>0.005880513547230432</v>
+        <v>0.00398975525974965</v>
       </c>
       <c r="I3">
-        <v>0.01928864669691066</v>
+        <v>0.01317715103603856</v>
       </c>
       <c r="J3">
-        <v>0.2160295490533599</v>
+        <v>0.2503652270274657</v>
       </c>
       <c r="K3">
-        <v>0.4035568323142478</v>
+        <v>0.3561797002750353</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1521627417434388</v>
       </c>
       <c r="M3">
-        <v>1.394556849476146</v>
+        <v>0.118651921783453</v>
       </c>
       <c r="N3">
-        <v>0.2811661991752175</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.39503940592158</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2886869871122713</v>
       </c>
       <c r="Q3">
-        <v>0.8582382537141626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.836789765360308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6969852880886833</v>
+        <v>0.6723868603433516</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.06273608885932447</v>
+        <v>0.06307754162851609</v>
       </c>
       <c r="E4">
-        <v>0.1450115454816041</v>
+        <v>0.1278250564666017</v>
       </c>
       <c r="F4">
-        <v>0.3003976777362141</v>
+        <v>0.2951460162783377</v>
       </c>
       <c r="G4">
-        <v>0.2095982252284401</v>
+        <v>0.1873065625254853</v>
       </c>
       <c r="H4">
-        <v>0.00693441164348288</v>
+        <v>0.004801993753802525</v>
       </c>
       <c r="I4">
-        <v>0.02093776307606943</v>
+        <v>0.01435230343586458</v>
       </c>
       <c r="J4">
-        <v>0.2160333483884571</v>
+        <v>0.2497982791348292</v>
       </c>
       <c r="K4">
-        <v>0.4102759905111775</v>
+        <v>0.3628999653546447</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1558606389212507</v>
       </c>
       <c r="M4">
-        <v>1.288775289173003</v>
+        <v>0.1215917092244418</v>
       </c>
       <c r="N4">
-        <v>0.2558926053425665</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.281923698202633</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2619484520133568</v>
       </c>
       <c r="Q4">
-        <v>0.8456077369088462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8271014895482409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6683133823400453</v>
+        <v>0.6456270291432702</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06052092765781936</v>
+        <v>0.06074408139451037</v>
       </c>
       <c r="E5">
-        <v>0.1439384600379867</v>
+        <v>0.1269724915053301</v>
       </c>
       <c r="F5">
-        <v>0.2956904504494418</v>
+        <v>0.2908914665044691</v>
       </c>
       <c r="G5">
-        <v>0.2069825027577892</v>
+        <v>0.1851342598263201</v>
       </c>
       <c r="H5">
-        <v>0.00740294827593474</v>
+        <v>0.005165681483576823</v>
       </c>
       <c r="I5">
-        <v>0.02174670926048705</v>
+        <v>0.01496939619719662</v>
       </c>
       <c r="J5">
-        <v>0.2159321609483342</v>
+        <v>0.249443453022252</v>
       </c>
       <c r="K5">
-        <v>0.4126750602150242</v>
+        <v>0.3653495477638362</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1572320328070944</v>
       </c>
       <c r="M5">
-        <v>1.247327320781153</v>
+        <v>0.1228352021189087</v>
       </c>
       <c r="N5">
-        <v>0.2459564490472559</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.237430573505236</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2514006583200938</v>
       </c>
       <c r="Q5">
-        <v>0.8397761778702062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8225253674894475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6621619492093487</v>
+        <v>0.6399240792413821</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06022191175541991</v>
+        <v>0.06041967788089408</v>
       </c>
       <c r="E6">
-        <v>0.1435860285249184</v>
+        <v>0.1266819509461818</v>
       </c>
       <c r="F6">
-        <v>0.29452574934691</v>
+        <v>0.2898389163507318</v>
       </c>
       <c r="G6">
-        <v>0.2061844838932814</v>
+        <v>0.1844516197791535</v>
       </c>
       <c r="H6">
-        <v>0.007487251123044131</v>
+        <v>0.005231352246594656</v>
       </c>
       <c r="I6">
-        <v>0.02200669519512832</v>
+        <v>0.01520999397179423</v>
       </c>
       <c r="J6">
-        <v>0.2157202209089064</v>
+        <v>0.249200679804126</v>
       </c>
       <c r="K6">
-        <v>0.4126064321369558</v>
+        <v>0.3653600139112125</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1572263135966683</v>
       </c>
       <c r="M6">
-        <v>1.242401913716861</v>
+        <v>0.1229852273937131</v>
       </c>
       <c r="N6">
-        <v>0.2447210024770072</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.23185052918322</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2500304369118993</v>
       </c>
       <c r="Q6">
-        <v>0.8376281631167046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8207025977211941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6928128663527957</v>
+        <v>0.6690353848602797</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06289459573719114</v>
+        <v>0.06335874927552254</v>
       </c>
       <c r="E7">
-        <v>0.1445260120523741</v>
+        <v>0.1274248945263849</v>
       </c>
       <c r="F7">
-        <v>0.2992727092890135</v>
+        <v>0.2934191543932769</v>
       </c>
       <c r="G7">
-        <v>0.2085576170057166</v>
+        <v>0.1884591026236464</v>
       </c>
       <c r="H7">
-        <v>0.006951831179409618</v>
+        <v>0.004818369741772521</v>
       </c>
       <c r="I7">
-        <v>0.02126780399773409</v>
+        <v>0.01471695494088099</v>
       </c>
       <c r="J7">
-        <v>0.2154908088046099</v>
+        <v>0.2460206756839511</v>
       </c>
       <c r="K7">
-        <v>0.4090311808117093</v>
+        <v>0.3616585034465842</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1551493471969145</v>
       </c>
       <c r="M7">
-        <v>1.293569311419475</v>
+        <v>0.1213808073834073</v>
       </c>
       <c r="N7">
-        <v>0.2568885033450101</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.285531780982069</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.262711126918461</v>
       </c>
       <c r="Q7">
-        <v>0.8422647350330266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8219687036697536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8304271079713601</v>
+        <v>0.798242935492226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07452139995795193</v>
+        <v>0.07591084446821839</v>
       </c>
       <c r="E8">
-        <v>0.1489332122300251</v>
+        <v>0.1308972327301854</v>
       </c>
       <c r="F8">
-        <v>0.322122016680126</v>
+        <v>0.3123930425700223</v>
       </c>
       <c r="G8">
-        <v>0.2207151995591801</v>
+        <v>0.2035085858840375</v>
       </c>
       <c r="H8">
-        <v>0.004892302097259493</v>
+        <v>0.003243741394781119</v>
       </c>
       <c r="I8">
-        <v>0.01806129788259181</v>
+        <v>0.01248105324897342</v>
       </c>
       <c r="J8">
-        <v>0.2155280478827564</v>
+        <v>0.2398206651934558</v>
       </c>
       <c r="K8">
-        <v>0.3949027122628568</v>
+        <v>0.3471782640556693</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1474274145751231</v>
       </c>
       <c r="M8">
-        <v>1.514864163050618</v>
+        <v>0.1153623295368988</v>
       </c>
       <c r="N8">
-        <v>0.3097387792549284</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.52042741752598</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3183008177726236</v>
       </c>
       <c r="Q8">
-        <v>0.86847938055638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8371476706727208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.10255951795952</v>
+        <v>1.050273143672712</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09706606344917645</v>
+        <v>0.09985940335672439</v>
       </c>
       <c r="E9">
-        <v>0.1577335152145878</v>
+        <v>0.1377520480123984</v>
       </c>
       <c r="F9">
-        <v>0.3723765680842135</v>
+        <v>0.3569836668908266</v>
       </c>
       <c r="G9">
-        <v>0.2492659034101905</v>
+        <v>0.2301797634477722</v>
       </c>
       <c r="H9">
-        <v>0.002060016756188499</v>
+        <v>0.001164077730879232</v>
       </c>
       <c r="I9">
-        <v>0.01269619697662083</v>
+        <v>0.008678331640918913</v>
       </c>
       <c r="J9">
-        <v>0.2186003474561247</v>
+        <v>0.2409735616733784</v>
       </c>
       <c r="K9">
-        <v>0.3709774306946532</v>
+        <v>0.3226157527611857</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1355024372533613</v>
       </c>
       <c r="M9">
-        <v>1.942087622297834</v>
+        <v>0.1071929512127925</v>
       </c>
       <c r="N9">
-        <v>0.4123833697499606</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.979762944332862</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4273571497427611</v>
       </c>
       <c r="Q9">
-        <v>0.9360925084206428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8888944412844495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.283763656579652</v>
+        <v>1.221642511421692</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1148456730077356</v>
+        <v>0.1194538078372318</v>
       </c>
       <c r="E10">
-        <v>0.1602797602923038</v>
+        <v>0.1398919785161485</v>
       </c>
       <c r="F10">
-        <v>0.4060154829232161</v>
+        <v>0.3829620746624727</v>
       </c>
       <c r="G10">
-        <v>0.2668714911525853</v>
+        <v>0.2600191772419933</v>
       </c>
       <c r="H10">
-        <v>0.001070285206029364</v>
+        <v>0.0005751885343991958</v>
       </c>
       <c r="I10">
-        <v>0.009934200121229253</v>
+        <v>0.006887601937799914</v>
       </c>
       <c r="J10">
-        <v>0.2193891950734823</v>
+        <v>0.2230691713210007</v>
       </c>
       <c r="K10">
-        <v>0.3492522481759348</v>
+        <v>0.3010900779939387</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1265005365219807</v>
       </c>
       <c r="M10">
-        <v>2.281435352663635</v>
+        <v>0.1012053640096848</v>
       </c>
       <c r="N10">
-        <v>0.4726088925566074</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.335712398851371</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4904633707361228</v>
       </c>
       <c r="Q10">
-        <v>0.9755133878639271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9065847410056875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.238808182002828</v>
+        <v>1.202727519773589</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1326416099824002</v>
+        <v>0.1385838280642844</v>
       </c>
       <c r="E11">
-        <v>0.1477848211583002</v>
+        <v>0.1322191476574979</v>
       </c>
       <c r="F11">
-        <v>0.3749758976273583</v>
+        <v>0.3493550508647303</v>
       </c>
       <c r="G11">
-        <v>0.2320238345931145</v>
+        <v>0.2575648449854242</v>
       </c>
       <c r="H11">
-        <v>0.019755974788918</v>
+        <v>0.01923981819654941</v>
       </c>
       <c r="I11">
-        <v>0.01004395914692324</v>
+        <v>0.007279352992560995</v>
       </c>
       <c r="J11">
-        <v>0.1973817955025652</v>
+        <v>0.1763480719277766</v>
       </c>
       <c r="K11">
-        <v>0.3072279317137969</v>
+        <v>0.2701933920979878</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1167002132153314</v>
       </c>
       <c r="M11">
-        <v>2.629910489722931</v>
+        <v>0.08875060281944602</v>
       </c>
       <c r="N11">
-        <v>0.367043567326462</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.649292404523635</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3754589606177774</v>
       </c>
       <c r="Q11">
-        <v>0.8557563935993642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7822486800160959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.169477633761602</v>
+        <v>1.154513666451066</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1441860683244016</v>
+        <v>0.1503176255074266</v>
       </c>
       <c r="E12">
-        <v>0.1576729456016714</v>
+        <v>0.1427834584457361</v>
       </c>
       <c r="F12">
-        <v>0.3438607429379488</v>
+        <v>0.3200818354916919</v>
       </c>
       <c r="G12">
-        <v>0.2019211138588943</v>
+        <v>0.2424065526770178</v>
       </c>
       <c r="H12">
-        <v>0.05859282975140445</v>
+        <v>0.05803238447436598</v>
       </c>
       <c r="I12">
-        <v>0.01008565028048292</v>
+        <v>0.007319835156528676</v>
       </c>
       <c r="J12">
-        <v>0.1800264930248829</v>
+        <v>0.1551200873469938</v>
       </c>
       <c r="K12">
-        <v>0.2887249921308541</v>
+        <v>0.2584227109309014</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1142772248993329</v>
       </c>
       <c r="M12">
-        <v>2.855984169904445</v>
+        <v>0.08271365287081855</v>
       </c>
       <c r="N12">
-        <v>0.2760309445231286</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.841774455332882</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.278040563511837</v>
       </c>
       <c r="Q12">
-        <v>0.7556791071109217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6897664504631251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.071867895716139</v>
+        <v>1.074933606669106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1517661449512673</v>
+        <v>0.1566313948898284</v>
       </c>
       <c r="E13">
-        <v>0.1839496133660603</v>
+        <v>0.1671213063411194</v>
       </c>
       <c r="F13">
-        <v>0.3090538203597077</v>
+        <v>0.2920107291709115</v>
       </c>
       <c r="G13">
-        <v>0.1719921974721714</v>
+        <v>0.2104347076058559</v>
       </c>
       <c r="H13">
-        <v>0.1145764141535039</v>
+        <v>0.113938325030702</v>
       </c>
       <c r="I13">
-        <v>0.01053275101070916</v>
+        <v>0.007607522775462172</v>
       </c>
       <c r="J13">
-        <v>0.1642902652069296</v>
+        <v>0.1493592910106649</v>
       </c>
       <c r="K13">
-        <v>0.2847180058913308</v>
+        <v>0.2576999914714646</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1153145132917013</v>
       </c>
       <c r="M13">
-        <v>3.007065518674807</v>
+        <v>0.08094734828196581</v>
       </c>
       <c r="N13">
-        <v>0.1931968773637465</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.960456529236893</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1907917902565117</v>
       </c>
       <c r="Q13">
-        <v>0.6592724738917184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6138139629695019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9904476183662894</v>
+        <v>1.004682874611859</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1553517395647503</v>
+        <v>0.1586309598790763</v>
       </c>
       <c r="E14">
-        <v>0.212210610404636</v>
+        <v>0.192586649678919</v>
       </c>
       <c r="F14">
-        <v>0.2830119736482359</v>
+        <v>0.2725052268791899</v>
       </c>
       <c r="G14">
-        <v>0.1512309348949046</v>
+        <v>0.1818588259529648</v>
       </c>
       <c r="H14">
-        <v>0.1641136802742693</v>
+        <v>0.1634060873375489</v>
       </c>
       <c r="I14">
-        <v>0.01113149091913712</v>
+        <v>0.008035209679815303</v>
       </c>
       <c r="J14">
-        <v>0.1540211728976288</v>
+        <v>0.1505787511765284</v>
       </c>
       <c r="K14">
-        <v>0.2896375797561195</v>
+        <v>0.2624147977383533</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1173743054177638</v>
       </c>
       <c r="M14">
-        <v>3.081016454456773</v>
+        <v>0.08204752786213643</v>
       </c>
       <c r="N14">
-        <v>0.141337622745894</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.011929483887769</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1368391397805269</v>
       </c>
       <c r="Q14">
-        <v>0.5937107020320553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.566786282535972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9633547988277371</v>
+        <v>0.9799203406195716</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1553753700562481</v>
+        <v>0.1579810800846815</v>
       </c>
       <c r="E15">
-        <v>0.2201466656873414</v>
+        <v>0.1997100915559145</v>
       </c>
       <c r="F15">
-        <v>0.2754985381321475</v>
+        <v>0.2674288061452614</v>
       </c>
       <c r="G15">
-        <v>0.1457530038348125</v>
+        <v>0.1719934070190661</v>
       </c>
       <c r="H15">
-        <v>0.1767095196691884</v>
+        <v>0.1759690180120685</v>
       </c>
       <c r="I15">
-        <v>0.01151835622775899</v>
+        <v>0.008360917273426693</v>
       </c>
       <c r="J15">
-        <v>0.1516389984983633</v>
+        <v>0.1531284992098101</v>
       </c>
       <c r="K15">
-        <v>0.292595500716228</v>
+        <v>0.264763358105979</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1180319239339713</v>
       </c>
       <c r="M15">
-        <v>3.083671441788823</v>
+        <v>0.08295122709065517</v>
       </c>
       <c r="N15">
-        <v>0.1291725085044106</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.009548033163014</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1243213737874314</v>
       </c>
       <c r="Q15">
-        <v>0.577078886583152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.556757448409158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9058655150063828</v>
+        <v>0.9188801696938356</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1459881767195128</v>
+        <v>0.1464183591875923</v>
       </c>
       <c r="E16">
-        <v>0.2125610689782427</v>
+        <v>0.1931166867684802</v>
       </c>
       <c r="F16">
-        <v>0.2673103461800892</v>
+        <v>0.2663019075824238</v>
       </c>
       <c r="G16">
-        <v>0.1435029766850917</v>
+        <v>0.1493868129675917</v>
       </c>
       <c r="H16">
-        <v>0.1644396416873946</v>
+        <v>0.1635161192781567</v>
       </c>
       <c r="I16">
-        <v>0.01281283872056349</v>
+        <v>0.00927982369404301</v>
       </c>
       <c r="J16">
-        <v>0.1539460790019689</v>
+        <v>0.1759010473324878</v>
       </c>
       <c r="K16">
-        <v>0.3009149255529096</v>
+        <v>0.2709302578390673</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1178314351423522</v>
       </c>
       <c r="M16">
-        <v>2.90393334486393</v>
+        <v>0.08686868035166562</v>
       </c>
       <c r="N16">
-        <v>0.1230620908592925</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.837410865929229</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1188729454708124</v>
       </c>
       <c r="Q16">
-        <v>0.5769501419579655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5748739000866578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9043044427057794</v>
+        <v>0.9094538010204474</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1369113494335323</v>
+        <v>0.1368734632046653</v>
       </c>
       <c r="E17">
-        <v>0.1901011378173543</v>
+        <v>0.1728941608176164</v>
       </c>
       <c r="F17">
-        <v>0.2748566905271588</v>
+        <v>0.2751655287389738</v>
       </c>
       <c r="G17">
-        <v>0.1527139693103052</v>
+        <v>0.1490668077108737</v>
       </c>
       <c r="H17">
-        <v>0.1269233005336758</v>
+        <v>0.1258935788837618</v>
       </c>
       <c r="I17">
-        <v>0.01351928587958184</v>
+        <v>0.009790954000195917</v>
       </c>
       <c r="J17">
-        <v>0.1611702913984843</v>
+        <v>0.192368172516467</v>
       </c>
       <c r="K17">
-        <v>0.3039850678041951</v>
+        <v>0.2734973773978684</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1172990408389989</v>
       </c>
       <c r="M17">
-        <v>2.727386389367638</v>
+        <v>0.08892885697959185</v>
       </c>
       <c r="N17">
-        <v>0.1444434994693964</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.67722834702019</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1416775038936038</v>
       </c>
       <c r="Q17">
-        <v>0.6114829937893091</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6125288866270751</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9544039162053934</v>
+        <v>0.9455111977087824</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1270988154869315</v>
+        <v>0.1275606181138613</v>
       </c>
       <c r="E18">
-        <v>0.1614958228446728</v>
+        <v>0.1466992950717483</v>
       </c>
       <c r="F18">
-        <v>0.2978997782448758</v>
+        <v>0.2959291256995513</v>
       </c>
       <c r="G18">
-        <v>0.1742808186858085</v>
+        <v>0.1641093435722141</v>
       </c>
       <c r="H18">
-        <v>0.07410597627601589</v>
+        <v>0.07305997523570085</v>
       </c>
       <c r="I18">
-        <v>0.01337986530584612</v>
+        <v>0.009566871780370967</v>
       </c>
       <c r="J18">
-        <v>0.1741220355101589</v>
+        <v>0.2082825888608966</v>
       </c>
       <c r="K18">
-        <v>0.3080138222645346</v>
+        <v>0.2767392691111872</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1178177447849609</v>
       </c>
       <c r="M18">
-        <v>2.532806904719166</v>
+        <v>0.09070398959584225</v>
       </c>
       <c r="N18">
-        <v>0.1978455602149722</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.509322920959079</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.198245754946953</v>
       </c>
       <c r="Q18">
-        <v>0.6842509207192222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6785754567381304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.037633440143935</v>
+        <v>1.010174977187063</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1181224984424745</v>
+        <v>0.1195402646948196</v>
       </c>
       <c r="E19">
-        <v>0.1450391497192216</v>
+        <v>0.1304719705853143</v>
       </c>
       <c r="F19">
-        <v>0.3308671369739997</v>
+        <v>0.3242818853578413</v>
       </c>
       <c r="G19">
-        <v>0.2041812261663054</v>
+        <v>0.1885007624525699</v>
       </c>
       <c r="H19">
-        <v>0.0285343448709412</v>
+        <v>0.02758096603165683</v>
       </c>
       <c r="I19">
-        <v>0.01313162918903021</v>
+        <v>0.00945101565051143</v>
       </c>
       <c r="J19">
-        <v>0.1905343668249699</v>
+        <v>0.2237445845517456</v>
       </c>
       <c r="K19">
-        <v>0.3198778719339637</v>
+        <v>0.2850741170070381</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1208048316622095</v>
       </c>
       <c r="M19">
-        <v>2.356375751309713</v>
+        <v>0.09398381579125425</v>
       </c>
       <c r="N19">
-        <v>0.2847840626399432</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.363532491664785</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2905496003476884</v>
       </c>
       <c r="Q19">
-        <v>0.7819785033705529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7625832710943286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.223783755753459</v>
+        <v>1.1641957385784</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1108211222324371</v>
+        <v>0.1143631465516961</v>
       </c>
       <c r="E20">
-        <v>0.1581942013445694</v>
+        <v>0.1382177102497</v>
       </c>
       <c r="F20">
-        <v>0.3935295463745021</v>
+        <v>0.3754620193519287</v>
       </c>
       <c r="G20">
-        <v>0.2588332774758442</v>
+        <v>0.241369919239844</v>
       </c>
       <c r="H20">
-        <v>0.001273093260942826</v>
+        <v>0.00067396315841739</v>
       </c>
       <c r="I20">
-        <v>0.0115384077538474</v>
+        <v>0.008379193062820534</v>
       </c>
       <c r="J20">
-        <v>0.217356798803813</v>
+        <v>0.2367058852532153</v>
       </c>
       <c r="K20">
-        <v>0.3511640031138885</v>
+        <v>0.304472887831885</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1279374558893789</v>
       </c>
       <c r="M20">
-        <v>2.210372224801432</v>
+        <v>0.1018362470409642</v>
       </c>
       <c r="N20">
-        <v>0.4596242234500352</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.261625677910558</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4768947825849921</v>
       </c>
       <c r="Q20">
-        <v>0.9541034129819224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8997738526165051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.386028517444373</v>
+        <v>1.3219705741339</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1227944804404189</v>
+        <v>0.1308196903687389</v>
       </c>
       <c r="E21">
-        <v>0.1654195329050907</v>
+        <v>0.1440595057663439</v>
       </c>
       <c r="F21">
-        <v>0.4291827795525336</v>
+        <v>0.3902588103605353</v>
       </c>
       <c r="G21">
-        <v>0.28149671106695</v>
+        <v>0.3156255423407401</v>
       </c>
       <c r="H21">
-        <v>0.0004131357861721918</v>
+        <v>0.0001246403821896225</v>
       </c>
       <c r="I21">
-        <v>0.009376957432419175</v>
+        <v>0.00695107285499752</v>
       </c>
       <c r="J21">
-        <v>0.2228209999314714</v>
+        <v>0.1795857845221462</v>
       </c>
       <c r="K21">
-        <v>0.3426886571748611</v>
+        <v>0.2907452855538768</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1226207665221724</v>
       </c>
       <c r="M21">
-        <v>2.437192710444577</v>
+        <v>0.09850934494888541</v>
       </c>
       <c r="N21">
-        <v>0.5310912199735611</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.492894143534755</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.54985661367094</v>
       </c>
       <c r="Q21">
-        <v>1.013922044223278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8985772103734888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.489496417963807</v>
+        <v>1.424220280892257</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1309177124802119</v>
+        <v>0.1421640030538498</v>
       </c>
       <c r="E22">
-        <v>0.1689877473087087</v>
+        <v>0.1471259331062633</v>
       </c>
       <c r="F22">
-        <v>0.4517127160889416</v>
+        <v>0.3981677963874333</v>
       </c>
       <c r="G22">
-        <v>0.2955271527522285</v>
+        <v>0.3710547671475553</v>
       </c>
       <c r="H22">
-        <v>0.0001479979511642693</v>
+        <v>1.432991355443392E-05</v>
       </c>
       <c r="I22">
-        <v>0.007837913702215538</v>
+        <v>0.005771499770085953</v>
       </c>
       <c r="J22">
-        <v>0.2260341938358437</v>
+        <v>0.1491985203527442</v>
       </c>
       <c r="K22">
-        <v>0.33652213912546</v>
+        <v>0.2813200568683509</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.119255025243524</v>
       </c>
       <c r="M22">
-        <v>2.589142746882317</v>
+        <v>0.09631276310815373</v>
       </c>
       <c r="N22">
-        <v>0.5680378732832878</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.645267149256739</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5870364044963594</v>
       </c>
       <c r="Q22">
-        <v>1.05060407723073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8927839868920273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.438902240997891</v>
+        <v>1.37259543956813</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.126347401130289</v>
+        <v>0.1354675853096126</v>
       </c>
       <c r="E23">
-        <v>0.1675973596579912</v>
+        <v>0.1458301291740831</v>
       </c>
       <c r="F23">
-        <v>0.4408559322610159</v>
+        <v>0.3968331060042374</v>
       </c>
       <c r="G23">
-        <v>0.2891431679805478</v>
+        <v>0.3356741639427412</v>
       </c>
       <c r="H23">
-        <v>0.0002705037293795343</v>
+        <v>5.813517661690248E-05</v>
       </c>
       <c r="I23">
-        <v>0.008288611769811105</v>
+        <v>0.005975292215887329</v>
       </c>
       <c r="J23">
-        <v>0.2248982055103923</v>
+        <v>0.1696064765617535</v>
       </c>
       <c r="K23">
-        <v>0.341128970863311</v>
+        <v>0.2876257648522191</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.121388557824254</v>
       </c>
       <c r="M23">
-        <v>2.501350322854535</v>
+        <v>0.09806857116494427</v>
       </c>
       <c r="N23">
-        <v>0.5469255086131426</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.559717707523191</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5662855214558391</v>
       </c>
       <c r="Q23">
-        <v>1.03457957299878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9043298530861392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.239151493061911</v>
+        <v>1.176560035571441</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1094604466969571</v>
+        <v>0.1130822732606021</v>
       </c>
       <c r="E24">
-        <v>0.1614277469336116</v>
+        <v>0.1406335182564442</v>
       </c>
       <c r="F24">
-        <v>0.3990411601315316</v>
+        <v>0.3802797885020794</v>
       </c>
       <c r="G24">
-        <v>0.264188195711931</v>
+        <v>0.2455249121532006</v>
       </c>
       <c r="H24">
-        <v>0.001097216035339077</v>
+        <v>0.000516644742582284</v>
       </c>
       <c r="I24">
-        <v>0.01092165335372197</v>
+        <v>0.007685519316043887</v>
       </c>
       <c r="J24">
-        <v>0.2202656272285637</v>
+        <v>0.2397060487926836</v>
       </c>
       <c r="K24">
-        <v>0.3569359381772301</v>
+        <v>0.3085751260952794</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1294120785756991</v>
       </c>
       <c r="M24">
-        <v>2.180654802819163</v>
+        <v>0.1034323269937527</v>
       </c>
       <c r="N24">
-        <v>0.469529847040917</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.235224621850563</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4878563262095952</v>
       </c>
       <c r="Q24">
-        <v>0.9715402697836453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9149204246566285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.022475393115855</v>
+        <v>0.9759112382624267</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09130293860856398</v>
+        <v>0.09347533818571918</v>
       </c>
       <c r="E25">
-        <v>0.1546097328228262</v>
+        <v>0.1353042726366622</v>
       </c>
       <c r="F25">
-        <v>0.3564659836521571</v>
+        <v>0.3438786497857222</v>
       </c>
       <c r="G25">
-        <v>0.2394064141445753</v>
+        <v>0.2179799019547772</v>
       </c>
       <c r="H25">
-        <v>0.00269714799128673</v>
+        <v>0.001614646854700807</v>
       </c>
       <c r="I25">
-        <v>0.01451918857380452</v>
+        <v>0.01017529704512388</v>
       </c>
       <c r="J25">
-        <v>0.216584672001197</v>
+        <v>0.2441557883448624</v>
       </c>
       <c r="K25">
-        <v>0.3751146680519764</v>
+        <v>0.3276930356269485</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1379101842928456</v>
       </c>
       <c r="M25">
-        <v>1.836065396209449</v>
+        <v>0.1086197345562452</v>
       </c>
       <c r="N25">
-        <v>0.3865621175028764</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.865213864987396</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3997984753918331</v>
       </c>
       <c r="Q25">
-        <v>0.9108000050800058</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8717366055751654</v>
       </c>
     </row>
   </sheetData>
